--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12708000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12716000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12482000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12024000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11402000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11876000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11358000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11633000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12929000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13164000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12692000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12494000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11785000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12556000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3834000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3616000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3315000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3165000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8368000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7646000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7874000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4257000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4393000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4292000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4210000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4063000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4426000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9153000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8882000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8866000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8709000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8237000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3508000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3712000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3759000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8672000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8771000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8400000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8284000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7722000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8130000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,55 +897,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2193000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2175000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2054000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1964000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4553000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4217000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4307000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2111000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2251000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2049000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2029000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1984000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,102 +995,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E14" s="3">
         <v>784000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>505000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>456000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>453000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1116000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>744000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>181000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>170000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>166000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>220000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E15" s="3">
         <v>15000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>15000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>145000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>15000</v>
       </c>
       <c r="K15" s="3">
         <v>15000</v>
       </c>
       <c r="L15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M15" s="3">
         <v>140000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>13000</v>
       </c>
       <c r="Q15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9964000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10893000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10124000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9361000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9160000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10515000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9119000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3411000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10482000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11094000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10335000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10214000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9863000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11101000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2744000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1823000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2358000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2663000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2242000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1361000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2239000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8222000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2447000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2070000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2357000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2280000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1922000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1455000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E20" s="3">
         <v>139000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>265000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>176000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>124000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>220000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>241000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>186000</v>
       </c>
       <c r="K20" s="3">
         <v>186000</v>
       </c>
       <c r="L20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="M20" s="3">
         <v>439000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>276000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>227000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>205000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-209000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4270000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3899000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4025000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3885000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3807000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3217000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3845000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3887000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3977000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4111000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3861000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3903000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2946000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E22" s="3">
         <v>203000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>216000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>205000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>226000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>248000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>229000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>237000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>224000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>208000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>197000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>192000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>168000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2621000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1759000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2407000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2634000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2140000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1333000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2251000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8171000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2409000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2301000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2436000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2315000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1947000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E24" s="3">
         <v>630000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>366000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>525000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>272000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>113000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>369000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>443000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>381000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>386000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>353000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>336000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>282000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1129000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2041000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2109000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1868000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1220000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1882000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7728000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2028000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1915000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2083000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1979000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1665000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>936000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1125000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2042000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2108000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1867000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1221000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1881000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7728000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2025000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1915000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2081000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1980000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1666000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>957000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1625,40 +1682,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>4691000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-101000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-26000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-258000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>40000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>61000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-139000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-265000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-176000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-124000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-220000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-186000</v>
       </c>
       <c r="K32" s="3">
         <v>-186000</v>
       </c>
       <c r="L32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-439000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-276000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-227000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-205000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>209000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1125000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2042000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6799000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1766000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1195000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1623000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7768000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2025000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1976000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2081000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1980000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1666000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>957000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1125000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2042000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6799000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1766000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1195000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1623000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7768000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2025000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1976000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2081000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1980000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1666000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>957000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,84 +2129,88 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4528000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11112000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8378000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9991000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6807000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13271000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12446000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5813000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9485000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9421000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8437000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8237000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7007000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E42" s="3">
         <v>334000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>339000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>344000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>305000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2693000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>710000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>609000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>24</v>
@@ -2132,343 +2221,367 @@
       <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="3">
         <v>770000</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8795000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8555000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8070000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8252000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7845000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8975000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8766000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8989000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9116000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8802000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8482000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8380000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8234000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8202000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6398000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5982000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6123000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6094000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5728000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6956000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6952000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7097000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7227000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6867000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6954000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6901000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6583000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6255000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2932000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3521000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3765000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3639000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31763000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3668000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3685000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2833000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10286000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3054000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2609000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2820000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2712000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2697000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23098000</v>
+      </c>
+      <c r="E46" s="3">
         <v>29504000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26675000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28320000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52448000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35563000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34113000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32065000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33051000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28208000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27466000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26538000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25766000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24931000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10521000</v>
+      </c>
+      <c r="E47" s="3">
         <v>11162000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11062000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11638000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10122000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10697000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10807000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10359000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10521000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26660000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28692000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27926000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27722000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16500000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13560000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13746000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13560000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14052000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14136000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15696000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15745000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15957000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16677000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16464000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16263000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16206000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15772000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15641000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>66388000</v>
+      </c>
+      <c r="E49" s="3">
         <v>55311000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56000000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53754000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53316000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74013000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>72989000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>74610000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66250000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61747000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62551000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>63079000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62726000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62320000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,37 +2677,40 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9530000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8647000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8674000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8530000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7924000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9594000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9340000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9067000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>24</v>
@@ -2602,14 +2721,17 @@
       <c r="O52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="3">
         <v>10732000</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123097000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118370000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115971000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116294000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137946000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>145563000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>142994000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142058000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>135524000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133079000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>134972000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133749000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>131986000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>130124000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4828000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5424000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4669000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4752000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4638000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5556000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4970000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5486000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4994000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5169000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4685000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4691000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4566000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4873000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11205000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7277000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8283000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8151000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7701000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9678000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9177000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9596000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10911000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5308000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6997000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7562000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8324000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5905000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15261000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15268000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17208000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43788000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14373000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14180000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12861000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12318000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12926000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13697000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13893000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13440000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11431000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31294000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28264000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30111000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56127000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29607000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28327000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27943000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28223000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23403000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25379000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26146000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26330000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22209000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25490000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22056000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21833000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22116000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22889000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22470000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22605000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22760000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23199000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23224000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23163000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22999000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22933000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17897000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15336000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12499000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13320000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12563000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11623000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14794000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14043000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14454000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12891000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12225000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14060000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14626000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15077000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15127000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72194000</v>
+      </c>
+      <c r="E66" s="3">
         <v>62896000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63447000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64868000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90717000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66949000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65056000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65243000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64426000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58911000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62661000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63830000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64400000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55292000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,37 +3587,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50035000</v>
+      </c>
+      <c r="E72" s="3">
         <v>54618000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51668000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50557000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>46348000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>77739000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>77063000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>75934000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>24</v>
@@ -3464,8 +3637,11 @@
       <c r="Q72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50903000</v>
+      </c>
+      <c r="E76" s="3">
         <v>55474000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52524000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51426000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47229000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78614000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77938000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76815000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71098000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74168000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72311000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69919000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67586000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74832000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1125000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2042000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6799000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1766000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1195000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1623000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7768000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2025000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1976000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2081000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1980000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1666000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>957000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1937000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1402000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1046000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1441000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3199000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2963000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2893000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1254000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1468000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1478000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1354000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1776000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2528000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3540000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4562000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3610000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1913000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3766000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4050000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3942000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2514000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3408000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3586000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3582000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2045000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3591000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-461000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-357000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-279000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-282000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-444000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-295000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-257000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-359000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-638000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-382000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-332000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-554000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10141000</v>
+      </c>
+      <c r="E94" s="3">
         <v>318000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-474000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1328000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-886000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4325000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-996000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-685000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-337000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,13 +4604,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-6987000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4387,11 +4620,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4399,11 +4632,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4411,16 +4644,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>453000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-388000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>79000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-64000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>76000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-104000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>80000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>51000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-382000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6584000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2734000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3184000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-729000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1554000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6633000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>954000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>284000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>565000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11622000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12708000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12716000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12482000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12024000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11402000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11876000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11358000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11633000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12929000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13164000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12692000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12494000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11785000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12556000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3337000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3555000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3834000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3616000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3315000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3165000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8368000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7646000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7874000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4257000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4393000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4292000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4210000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4063000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4426000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8285000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9153000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8882000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8866000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8709000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8237000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3508000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3712000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3759000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8672000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8771000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8400000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8284000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7722000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8130000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2034000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2193000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2175000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2054000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1964000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4553000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4217000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4307000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2111000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2251000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2049000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2029000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1984000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2173000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,108 +1014,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E14" s="3">
         <v>302000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>784000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>505000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>456000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>453000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1116000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>744000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>181000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>170000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>166000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>68000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>220000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-152000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>14000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>145000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>15000</v>
       </c>
       <c r="L15" s="3">
         <v>15000</v>
       </c>
       <c r="M15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N15" s="3">
         <v>140000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>13000</v>
       </c>
       <c r="R15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9270000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9964000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10893000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10124000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9160000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10515000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9119000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3411000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10482000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11094000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10335000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10214000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9863000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11101000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2744000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1823000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2358000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2663000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2242000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1361000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2239000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8222000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2447000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2070000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2357000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2280000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1922000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1455000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E20" s="3">
         <v>116000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>139000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>265000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>176000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>124000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>220000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>241000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>186000</v>
       </c>
       <c r="L20" s="3">
         <v>186000</v>
       </c>
       <c r="M20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="N20" s="3">
         <v>439000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>276000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>227000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>205000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-209000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4211000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4270000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3899000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4025000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3885000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3807000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3217000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3845000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3887000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3977000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4111000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3861000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3903000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2946000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E22" s="3">
         <v>239000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>203000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>216000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>205000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>226000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>248000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>229000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>237000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>224000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>208000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>197000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>192000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>168000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2288000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2621000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1759000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2407000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2634000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2140000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1333000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2251000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8171000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2409000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2301000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2436000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2315000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1947000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1078000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E24" s="3">
         <v>448000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>630000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>366000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>525000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>272000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>113000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>369000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>443000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>381000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>386000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>353000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>336000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>282000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>142000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1129000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2041000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2109000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1868000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1220000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1882000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7728000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2028000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1915000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2083000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1979000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1665000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>936000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2176000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1125000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2042000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2108000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1867000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1221000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1881000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7728000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2025000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1915000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2081000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1980000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>957000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1685,43 +1742,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>4691000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-101000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-26000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-258000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>40000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>61000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-116000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-139000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-265000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-176000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-124000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-220000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-186000</v>
       </c>
       <c r="L32" s="3">
         <v>-186000</v>
       </c>
       <c r="M32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-439000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-276000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-227000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>209000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2176000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1125000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2042000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6799000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1766000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1195000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1623000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7768000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2025000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1976000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2081000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1980000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>957000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2176000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1125000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2042000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6799000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1766000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1195000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1623000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7768000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2025000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1976000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2081000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1980000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>957000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,90 +2215,94 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5917000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4528000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11112000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8378000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9991000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6807000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13271000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14000000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12446000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5813000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9485000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9421000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8437000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8237000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7007000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E42" s="3">
         <v>445000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>334000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>339000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>344000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>305000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2693000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>710000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>609000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>24</v>
@@ -2224,364 +2313,388 @@
       <c r="P42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="3">
         <v>770000</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7952000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8795000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8555000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8070000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8252000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7845000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8975000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8766000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8989000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9116000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8802000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8482000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8380000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8234000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8202000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6904000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6398000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5982000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6123000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6094000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5728000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6956000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6952000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7097000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7227000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6867000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6954000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6901000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6583000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6255000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2733000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2932000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3521000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3765000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3639000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31763000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3668000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3685000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2833000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10286000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3054000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2609000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2820000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2712000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2697000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23882000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23098000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29504000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26675000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28320000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52448000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35563000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32065000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33051000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28208000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27466000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26538000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25766000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24931000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11050000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10521000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11162000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11062000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11638000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10122000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10697000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10807000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10359000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10521000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26660000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28692000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27926000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27722000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16500000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13595000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13560000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13746000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13560000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14052000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14136000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15696000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15745000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15957000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16677000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16464000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16263000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16206000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15772000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15641000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>65769000</v>
+      </c>
+      <c r="E49" s="3">
         <v>66388000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55311000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56000000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53754000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53316000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74013000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>72989000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74610000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66250000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61747000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62551000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>63079000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62726000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62320000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,40 +2796,43 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9467000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9530000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8647000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8674000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8530000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7924000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9594000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9340000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9067000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>24</v>
@@ -2724,14 +2843,17 @@
       <c r="P52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="3">
         <v>10732000</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123763000</v>
+      </c>
+      <c r="E54" s="3">
         <v>123097000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118370000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>115971000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116294000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>137946000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>145563000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142994000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142058000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>135524000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133079000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134972000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133749000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>131986000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>130124000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4820000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4828000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5424000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4669000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4752000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4638000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5556000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4970000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5486000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4994000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5169000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4685000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4691000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4566000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4873000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9133000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11205000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7277000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8283000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8151000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7701000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9678000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9177000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9596000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10911000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5308000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6997000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7562000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8324000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5905000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15429000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15261000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15563000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15268000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17208000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43788000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14373000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14180000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12861000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12318000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12926000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13697000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13893000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13440000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11431000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29382000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31294000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28264000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30111000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56127000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29607000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28327000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27943000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28223000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23403000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25379000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26146000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26330000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22209000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25653000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25490000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22056000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21833000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22116000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22889000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22470000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22760000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23199000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23224000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23163000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22999000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22933000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17897000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14843000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15336000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12499000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13320000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12563000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11623000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14794000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14043000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14454000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12891000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12225000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14060000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14626000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15077000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15127000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69951000</v>
+      </c>
+      <c r="E66" s="3">
         <v>72194000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62896000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63447000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64868000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90717000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66949000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65056000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65243000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64426000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58911000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62661000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63830000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64400000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55292000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,40 +3760,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52936000</v>
+      </c>
+      <c r="E72" s="3">
         <v>50035000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54618000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51668000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50557000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46348000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>77739000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>77063000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>75934000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>24</v>
@@ -3640,8 +3813,11 @@
       <c r="R72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53812000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50903000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55474000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52524000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51426000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47229000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78614000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77938000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76815000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71098000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74168000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72311000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69919000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67586000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74832000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2176000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1125000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2042000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6799000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1766000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1195000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1623000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7768000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2025000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1976000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2081000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1980000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>957000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1410000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1937000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1402000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1046000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1441000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3199000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2963000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2893000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1254000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1468000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1478000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1354000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1776000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2528000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3540000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4562000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3610000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1913000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3766000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4050000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3942000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2514000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3408000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3586000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3582000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2045000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3591000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-237000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-461000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-357000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-279000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-282000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-444000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-295000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-257000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-359000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-638000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-382000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-332000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-554000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-516000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-425000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>318000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-474000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1328000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-886000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4325000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-996000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-685000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-337000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,17 +4837,18 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4623,11 +4856,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4635,11 +4868,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4647,16 +4880,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2185000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1013000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>453000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>79000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-64000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>76000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-104000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>80000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>34000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>51000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-382000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2734000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3184000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-729000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1554000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6633000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>954000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>284000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>565000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-167000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12538000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11622000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12716000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12482000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12024000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11402000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11876000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11358000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11633000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12929000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13164000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12692000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12494000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11785000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12556000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3568000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3337000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3555000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3834000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3616000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3315000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3165000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8368000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7646000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7874000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4257000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4393000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4292000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4210000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4063000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4426000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8970000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8285000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9153000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8882000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8866000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8709000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8237000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3508000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3712000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3759000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8672000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8771000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8400000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8284000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7722000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8130000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2010000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2034000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2193000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2175000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2054000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1964000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4553000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4217000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4307000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2111000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2251000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2049000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2029000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1984000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2173000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,114 +1033,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E14" s="3">
         <v>731000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>302000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>784000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>505000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>456000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>453000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1116000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>744000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>181000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>170000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>166000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>68000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>220000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-152000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>145000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>15000</v>
       </c>
       <c r="M15" s="3">
         <v>15000</v>
       </c>
       <c r="N15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O15" s="3">
         <v>140000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>13000</v>
       </c>
       <c r="S15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10126000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9270000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9964000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10893000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10124000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9160000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10515000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9119000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3411000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10482000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11094000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10335000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10214000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9863000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11101000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2412000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2352000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2744000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1823000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2358000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2663000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2242000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1361000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2239000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8222000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2447000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2070000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2357000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2280000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1922000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1455000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E20" s="3">
         <v>156000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>116000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>139000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>265000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>176000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>124000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>220000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>241000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>186000</v>
       </c>
       <c r="M20" s="3">
         <v>186000</v>
       </c>
       <c r="N20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="O20" s="3">
         <v>439000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>276000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>227000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>205000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-209000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4353000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4211000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4270000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3899000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4025000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3885000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3807000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3217000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3845000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9688000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3887000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3977000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4111000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3861000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3903000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2946000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E22" s="3">
         <v>220000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>239000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>203000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>216000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>205000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>226000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>248000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>229000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>237000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>224000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>208000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>197000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>192000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>168000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2410000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2288000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2621000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1759000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2407000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2634000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2140000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1333000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2251000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8171000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2409000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2301000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2436000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2315000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1947000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1078000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E24" s="3">
         <v>421000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>448000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>630000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>366000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>525000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>272000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>113000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>369000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>443000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>381000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>386000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>353000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>336000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>282000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>142000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1867000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1129000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2041000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2109000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1868000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1220000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1882000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7728000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2028000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1915000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2083000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1979000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1665000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>936000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1867000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2176000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1125000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2042000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2108000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1867000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1221000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1881000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7728000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2025000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1915000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2081000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1666000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>957000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,35 +1816,35 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>4691000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-101000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-26000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-258000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>40000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>61000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-156000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-116000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-139000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-265000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-176000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-124000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-220000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-186000</v>
       </c>
       <c r="M32" s="3">
         <v>-186000</v>
       </c>
       <c r="N32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-439000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-276000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-205000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>209000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1867000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2176000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1125000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2042000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6799000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1766000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1195000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1623000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7768000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2025000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1976000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2081000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1666000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>957000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1867000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2176000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1125000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2042000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6799000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1766000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1195000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1623000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7768000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2025000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1976000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2081000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1666000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>957000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,96 +2301,100 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8994000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5917000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4528000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11112000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8378000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9991000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6807000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13271000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14000000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12446000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5813000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9485000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9421000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8437000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8237000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7007000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E42" s="3">
         <v>376000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>445000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>334000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>339000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>344000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>305000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2693000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>710000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>609000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>24</v>
@@ -2316,385 +2405,409 @@
       <c r="Q42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="3">
         <v>770000</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8299000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7952000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8795000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8555000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8070000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8252000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7845000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8975000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8766000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8989000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9116000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8802000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8482000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8380000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8234000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8202000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7136000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6904000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6398000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5982000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6123000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6094000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5728000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6956000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6952000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7097000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7227000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6867000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6954000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6901000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6583000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6255000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2733000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2932000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3521000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3765000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3639000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31763000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3668000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3685000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2833000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10286000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3054000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2609000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2820000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2712000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2697000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28973000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23882000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23098000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29504000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26675000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28320000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52448000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35563000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34113000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32065000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33051000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28208000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27466000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26538000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25766000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24931000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11603000</v>
+      </c>
+      <c r="E47" s="3">
         <v>11050000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10521000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11162000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11062000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11638000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10122000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10697000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10807000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10359000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10521000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26660000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28692000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27926000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27722000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16500000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13337000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13595000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13560000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13746000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13560000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14052000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14136000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15696000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15745000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15957000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16677000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16464000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16263000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16206000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15772000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15641000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>66415000</v>
+      </c>
+      <c r="E49" s="3">
         <v>65769000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>66388000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55311000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56000000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53754000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53316000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>74013000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>72989000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>74610000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66250000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>61747000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62551000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>63079000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62726000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62320000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,43 +2915,46 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9350000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9467000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9530000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8647000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8674000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8530000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7924000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9594000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9340000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9067000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>24</v>
@@ -2846,14 +2965,17 @@
       <c r="Q52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="3">
         <v>10732000</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>129678000</v>
+      </c>
+      <c r="E54" s="3">
         <v>123763000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123097000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118370000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>115971000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116294000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>137946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>145563000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142994000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142058000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>135524000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133079000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134972000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>133749000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>131986000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>130124000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4705000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4820000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4828000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5424000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4669000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4752000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4638000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5556000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4970000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5486000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4994000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5169000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4685000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4691000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4566000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4873000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9994000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9133000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11205000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7277000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8283000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8151000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7701000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9678000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9177000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9596000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10911000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5308000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6997000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7562000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8324000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5905000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17139000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15429000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15261000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15563000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15268000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17208000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43788000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14373000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14180000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12861000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12318000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12926000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13697000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13893000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13440000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11431000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31838000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29382000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31294000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28264000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30111000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56127000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29607000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28327000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27943000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28223000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23403000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25379000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26146000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26330000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22209000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28181000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25653000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25490000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22056000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21833000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22116000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22889000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22470000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22760000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23199000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23224000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23163000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22999000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22933000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17897000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15105000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14843000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15336000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12499000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13320000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12563000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11623000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14794000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14043000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14454000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12891000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12225000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14060000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14626000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15077000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15127000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75194000</v>
+      </c>
+      <c r="E66" s="3">
         <v>69951000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>72194000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62896000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63447000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64868000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90717000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66949000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65056000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65243000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64426000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58911000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62661000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63830000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64400000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55292000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,43 +3933,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53615000</v>
+      </c>
+      <c r="E72" s="3">
         <v>52936000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50035000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54618000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51668000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50557000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46348000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>77739000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77063000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>75934000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>24</v>
@@ -3816,8 +3989,11 @@
       <c r="S72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54484000</v>
+      </c>
+      <c r="E76" s="3">
         <v>53812000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50903000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55474000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52524000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51426000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47229000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78614000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77938000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76815000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71098000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74168000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72311000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69919000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67586000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74832000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1867000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2176000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1125000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2042000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6799000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1766000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1195000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1623000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7768000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2025000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1976000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2081000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1666000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>957000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1703000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1410000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1937000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1402000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1046000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1441000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3199000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2963000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2893000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1254000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1468000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1478000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1776000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3156000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3961000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2528000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3540000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4562000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3610000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1913000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3766000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4050000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3942000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2514000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3408000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3586000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3582000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2045000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3591000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-238000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-237000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-461000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-357000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-279000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-282000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-444000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-295000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-257000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-359000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-638000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-382000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-332000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-554000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-516000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2045000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-425000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>318000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-474000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1328000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-886000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4325000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-996000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-685000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-337000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4847,11 +5080,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4859,11 +5092,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4871,11 +5104,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4883,16 +5116,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1013000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>453000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-388000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E101" s="3">
         <v>38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>79000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-64000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>76000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-104000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>80000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>51000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-382000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3077000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1389000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2734000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3184000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-729000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1554000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6633000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>954000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>284000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>565000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-167000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13030000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11622000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12708000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12716000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12482000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12024000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11402000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11876000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11358000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11633000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12929000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13164000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12692000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12494000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11785000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12556000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3940000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3568000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3337000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3555000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3834000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3616000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3315000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3165000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8368000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7646000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7874000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4257000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4393000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4292000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4210000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4063000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4426000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9090000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8970000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8285000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9153000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8882000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8866000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8709000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8237000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3508000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3712000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3759000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8672000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8771000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8400000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8284000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7722000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8130000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2297000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2143000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2010000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2034000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2193000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2175000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2054000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1964000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4553000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4217000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4307000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2111000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2251000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2049000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2029000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1984000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2173000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,120 +1052,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1067000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>731000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>302000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>784000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>505000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>456000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>453000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1116000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>744000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>181000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>170000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>166000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>68000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>220000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-152000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E15" s="3">
         <v>12000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>145000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>15000</v>
       </c>
       <c r="N15" s="3">
         <v>15000</v>
       </c>
       <c r="O15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="3">
         <v>140000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>13000</v>
       </c>
       <c r="T15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10386000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10126000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9270000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9964000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10893000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10124000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9160000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10515000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9119000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3411000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10482000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11094000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10335000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10214000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9863000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11101000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2644000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2412000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2352000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2744000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1823000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2358000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2663000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2242000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1361000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2239000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8222000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2447000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2070000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2357000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2280000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1922000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1455000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E20" s="3">
         <v>207000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>156000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>116000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>139000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>265000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>176000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>124000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>220000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>241000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>186000</v>
       </c>
       <c r="N20" s="3">
         <v>186000</v>
       </c>
       <c r="O20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="P20" s="3">
         <v>439000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>276000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>227000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>205000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-209000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4377000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4353000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4211000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4270000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3899000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4025000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3885000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3807000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3217000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3845000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9688000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3887000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3977000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4111000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3861000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3903000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2946000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E22" s="3">
         <v>209000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>220000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>239000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>203000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>216000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>205000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>226000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>248000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>229000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>237000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>224000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>208000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>197000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>192000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>180000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>168000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2410000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2288000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2621000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1759000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2407000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2634000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2140000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1333000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2251000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8171000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2409000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2301000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2436000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2315000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1947000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1078000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E24" s="3">
         <v>478000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>421000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>448000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>630000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>366000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>525000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>272000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>113000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>369000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>443000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>381000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>386000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>353000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>336000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>282000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>142000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2099000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1932000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1867000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2173000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1129000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2041000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2109000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1868000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1220000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1882000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7728000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2028000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1915000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2083000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1979000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1665000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>936000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1935000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1867000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2176000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1125000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2042000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2108000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1867000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1221000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1881000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7728000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2025000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1915000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2081000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1980000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1666000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>957000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,35 +1879,35 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>4691000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-101000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-26000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-258000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>40000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>61000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-207000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-156000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-116000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-139000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-265000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-176000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-124000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-220000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-186000</v>
       </c>
       <c r="N32" s="3">
         <v>-186000</v>
       </c>
       <c r="O32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-439000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-227000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-205000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>209000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1935000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1867000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2176000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1125000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2042000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6799000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1766000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1195000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1623000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7768000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2025000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1976000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2081000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1980000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1666000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>957000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1935000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1867000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2176000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1125000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2042000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6799000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1766000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1195000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1623000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7768000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2025000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1976000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2081000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1980000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1666000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>957000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,102 +2387,106 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9658000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8994000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5917000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4528000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11112000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8378000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9991000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6807000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13271000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12446000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5813000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9485000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9421000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8437000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8237000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7007000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1876000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>376000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>445000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>334000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>339000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>344000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>305000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2693000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>710000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>609000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>24</v>
@@ -2408,406 +2497,430 @@
       <c r="R42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="3">
         <v>770000</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8456000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8299000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7952000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8795000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8555000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8070000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8252000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7845000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8975000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8766000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8989000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9116000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8802000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8482000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8380000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8234000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8202000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7131000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7136000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6904000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6398000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5982000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6123000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6094000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5728000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6956000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6952000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7097000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7227000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6867000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6954000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6901000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6583000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6255000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2523000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2668000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2733000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2932000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3521000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3765000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3639000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31763000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3668000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3685000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2833000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10286000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3054000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2609000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2820000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2712000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2697000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29673000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28973000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23882000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23098000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29504000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26675000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28320000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52448000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35563000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34113000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32065000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33051000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28208000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27466000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26538000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25766000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24931000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12533000</v>
+      </c>
+      <c r="E47" s="3">
         <v>11603000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11050000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10521000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11162000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11062000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11638000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10122000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10697000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10807000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10359000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10521000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26660000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28692000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27926000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27722000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16500000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13939000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13337000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13595000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13560000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13746000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13560000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14052000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14136000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15696000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15745000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15957000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16677000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16464000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16263000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16206000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15772000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15641000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>66808000</v>
+      </c>
+      <c r="E49" s="3">
         <v>66415000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>65769000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>66388000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>55311000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56000000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53754000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53316000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74013000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>72989000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>74610000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66250000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>61747000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62551000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>63079000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62726000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62320000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,46 +3034,49 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9106000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9350000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9467000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9530000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8647000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8674000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8530000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7924000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9594000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9340000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9067000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>24</v>
@@ -2968,14 +3087,17 @@
       <c r="R52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T52" s="3">
         <v>10732000</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>132059000</v>
+      </c>
+      <c r="E54" s="3">
         <v>129678000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123763000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123097000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118370000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115971000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116294000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137946000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>145563000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142994000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>142058000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>135524000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133079000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134972000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133749000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>131986000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>130124000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5403000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4705000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4820000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4828000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5424000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4669000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4752000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4638000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5556000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4970000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5486000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4994000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5169000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4685000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4691000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4566000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4873000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10071000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9994000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9133000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11205000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7277000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8283000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8151000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7701000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9678000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9177000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9596000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10911000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5308000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6997000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7562000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8324000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5905000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17585000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17139000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15429000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15261000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15563000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15268000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17208000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43788000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14373000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14180000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12861000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12318000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12926000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13697000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13893000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13440000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11431000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33059000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31838000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29382000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31294000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28264000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30111000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56127000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29607000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28327000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27943000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28223000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23403000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25379000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26146000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26330000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22209000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27978000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28181000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25653000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25490000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22056000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21833000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22116000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22889000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22470000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22760000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23199000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23224000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23163000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22999000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22933000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17897000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14356000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15105000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14843000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15336000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12499000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13320000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12563000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11623000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14794000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14043000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14454000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12891000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12225000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14060000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14626000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15077000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15127000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75461000</v>
+      </c>
+      <c r="E66" s="3">
         <v>75194000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69951000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72194000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62896000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63447000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64868000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90717000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66949000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65056000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65243000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64426000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58911000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62661000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63830000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64400000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55292000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,46 +4106,49 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55738000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53615000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52936000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50035000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54618000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51668000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50557000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46348000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77739000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>77063000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>75934000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>24</v>
@@ -3992,8 +4165,11 @@
       <c r="T72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56598000</v>
+      </c>
+      <c r="E76" s="3">
         <v>54484000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53812000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50903000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55474000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52524000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51426000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47229000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78614000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77938000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76815000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71098000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74168000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72311000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69919000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67586000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74832000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1935000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1867000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2176000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1125000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2042000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6799000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1766000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1195000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1623000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7768000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2025000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1976000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2081000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1980000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1666000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>957000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1734000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1703000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1410000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1937000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1402000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1046000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1441000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3199000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2963000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2893000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1254000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1468000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1478000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1354000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1776000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1700000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4005000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3156000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3961000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2528000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3540000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4562000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3610000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1913000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3766000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4050000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3942000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2514000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3408000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3586000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3582000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2045000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3591000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-521000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-279000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-238000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-237000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-461000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-357000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-279000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-282000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-444000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-295000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-257000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-359000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-638000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-382000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-332000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-554000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-516000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-571000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-425000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>318000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-474000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1328000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-886000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4325000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-996000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-685000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-337000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5083,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5095,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5107,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5119,16 +5352,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2936000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1013000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>453000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-388000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E101" s="3">
         <v>66000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>79000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-64000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>76000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-104000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>80000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>34000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>51000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-382000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>664000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3077000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1389000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2734000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3184000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-729000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1554000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6633000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>954000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>284000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>565000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-167000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12694000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13030000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12538000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11622000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12708000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12716000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12482000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12024000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11402000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11876000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11358000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11633000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12929000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13164000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12692000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12494000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11785000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12556000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3833000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3940000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3568000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3337000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3555000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3834000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3616000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3315000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3165000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8368000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7646000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7874000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4257000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4393000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4292000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4210000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4063000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4426000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8861000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9090000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8970000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8285000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9153000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8882000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8866000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8709000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8237000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3508000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3712000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3759000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8672000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8771000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8400000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8284000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7722000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8130000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2297000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2143000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2010000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2034000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2193000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2175000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2054000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1964000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4553000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4217000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4307000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2111000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2251000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2049000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2029000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1984000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2173000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,67 +1071,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E14" s="3">
         <v>66000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1067000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>731000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>302000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>784000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>505000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>456000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>453000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1116000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>744000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>181000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>170000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>166000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>68000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>220000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-152000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,58 +1145,61 @@
         <v>27000</v>
       </c>
       <c r="E15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F15" s="3">
         <v>12000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>15000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>145000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>15000</v>
       </c>
       <c r="O15" s="3">
         <v>15000</v>
       </c>
       <c r="P15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>140000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>13000</v>
       </c>
       <c r="U15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10279000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10386000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10126000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9270000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9964000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10893000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10124000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9160000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10515000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9119000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3411000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10482000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11094000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10335000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10214000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9863000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11101000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2644000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2412000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2352000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2744000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1823000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2358000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2663000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2242000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1361000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2239000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8222000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2447000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2070000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2357000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2280000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1922000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1455000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E20" s="3">
         <v>116000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>207000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>156000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>116000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>139000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>265000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>176000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>124000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>220000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>241000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>186000</v>
       </c>
       <c r="O20" s="3">
         <v>186000</v>
       </c>
       <c r="P20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>439000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>276000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>227000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>205000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-209000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4349000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4377000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4353000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4211000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4270000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3899000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4025000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3885000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3807000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3217000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3845000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9688000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3887000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3977000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4111000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3861000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3903000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2946000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E22" s="3">
         <v>201000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>209000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>220000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>239000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>203000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>216000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>205000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>226000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>248000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>229000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>237000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>224000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>208000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>197000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>192000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>168000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2559000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2410000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2288000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2621000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1759000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2407000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2634000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2140000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1333000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2251000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8171000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2409000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2301000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2436000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2315000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1947000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1078000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E24" s="3">
         <v>460000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>478000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>421000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>448000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>630000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>366000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>525000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>272000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>113000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>369000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>443000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>381000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>386000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>353000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>336000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>282000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>142000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2099000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1932000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1867000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2173000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1129000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2041000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2109000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1868000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1220000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1882000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7728000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2028000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1915000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2083000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1979000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1665000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>936000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2094000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1935000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1867000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2176000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1125000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2042000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2108000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1867000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1221000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1881000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7728000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2025000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1915000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2081000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1980000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1666000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>957000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,35 +1942,35 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>4691000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-101000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-26000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-258000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>40000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>61000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-116000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-207000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-156000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-116000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-139000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-265000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-176000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-124000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-220000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-186000</v>
       </c>
       <c r="O32" s="3">
         <v>-186000</v>
       </c>
       <c r="P32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-439000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-276000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-227000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-205000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>209000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2094000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1935000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1867000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2176000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1125000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2042000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6799000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1766000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1195000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1623000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7768000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2025000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2081000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1980000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1666000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>957000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2094000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1935000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1867000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2176000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1125000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2042000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6799000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1766000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1195000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1623000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7768000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2025000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2081000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1980000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1666000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>957000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,108 +2473,112 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3801000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9658000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8994000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5917000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4528000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11112000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8378000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9991000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6807000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13271000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12446000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5813000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9485000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9421000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8437000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8237000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7007000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1905000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1876000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>376000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>445000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>334000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>339000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>344000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>305000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2693000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>710000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>700000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>609000</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>24</v>
@@ -2500,427 +2589,451 @@
       <c r="S42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="3">
         <v>770000</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8481000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8456000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8299000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7952000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8795000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8555000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8070000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8252000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7845000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8975000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8766000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8989000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9116000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8802000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8482000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8380000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8234000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8202000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6997000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7131000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7136000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6904000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6398000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5982000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6123000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6094000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5728000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6956000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6952000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7097000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7227000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6867000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6954000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6901000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6583000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6255000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2643000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2523000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2668000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2733000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2932000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3521000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3765000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3639000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31763000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3668000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3685000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2833000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10286000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3054000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2609000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2820000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2712000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2697000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22198000</v>
+      </c>
+      <c r="E46" s="3">
         <v>29673000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28973000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23882000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23098000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29504000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26675000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28320000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52448000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35563000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32065000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33051000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28208000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27466000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26538000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25766000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24931000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11628000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12533000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11603000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11050000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10521000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11162000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11062000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11638000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10122000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10697000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10807000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10359000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10521000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26660000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28692000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27926000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27722000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16500000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13204000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13939000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13337000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13595000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13560000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13746000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13560000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14052000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14136000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15696000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15745000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15957000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16677000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16464000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16263000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16206000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15772000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15641000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64967000</v>
+      </c>
+      <c r="E49" s="3">
         <v>66808000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>66415000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>65769000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66388000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>55311000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56000000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53754000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53316000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>74013000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>72989000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>74610000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66250000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>61747000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62551000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>63079000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62726000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62320000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,49 +3153,52 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9755000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9106000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9350000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9467000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9530000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8647000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8674000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8530000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7924000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9594000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9340000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9067000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>24</v>
@@ -3090,14 +3209,17 @@
       <c r="S52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52" s="3">
         <v>10732000</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121752000</v>
+      </c>
+      <c r="E54" s="3">
         <v>132059000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>129678000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123763000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123097000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118370000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115971000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116294000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137946000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>145563000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>142994000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>142058000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>135524000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>133079000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>134972000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133749000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>131986000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>130124000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5040000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5403000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4705000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4820000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4828000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5424000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4669000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4752000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4638000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5556000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4970000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5486000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4994000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5169000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4685000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4691000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4566000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4873000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10400000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10071000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9994000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9133000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11205000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7277000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8283000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8151000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7701000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9678000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9177000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9596000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10911000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5308000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6997000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7562000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8324000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5905000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14720000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17585000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17139000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15429000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15261000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15563000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15268000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17208000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43788000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14373000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14180000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12861000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12318000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12926000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13697000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13893000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13440000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11431000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30160000</v>
+      </c>
+      <c r="E60" s="3">
         <v>33059000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31838000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29382000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31294000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28264000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28220000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30111000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56127000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29607000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28327000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27943000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28223000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23403000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25379000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26146000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26330000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22209000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27399000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27978000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28181000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25653000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25490000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22056000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21833000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22116000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22889000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22470000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22605000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22760000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23199000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23224000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23163000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22999000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22933000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17897000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13604000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14356000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15105000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14843000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15336000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12499000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13320000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12563000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11623000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14794000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14043000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14454000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12891000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12225000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14060000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14626000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15077000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15127000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71229000</v>
+      </c>
+      <c r="E66" s="3">
         <v>75461000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75194000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69951000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>72194000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62896000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63447000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64868000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90717000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66949000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65056000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65243000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64426000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58911000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62661000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63830000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64400000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55292000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,49 +4279,52 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49670000</v>
+      </c>
+      <c r="E72" s="3">
         <v>55738000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53615000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52936000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50035000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54618000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51668000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50557000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46348000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>77739000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>77063000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>75934000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>24</v>
@@ -4168,8 +4341,11 @@
       <c r="U72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50523000</v>
+      </c>
+      <c r="E76" s="3">
         <v>56598000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54484000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53812000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50903000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55474000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52524000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>51426000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47229000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78614000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77938000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76815000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71098000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74168000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72311000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69919000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67586000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74832000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2094000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1935000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1867000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2176000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1125000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2042000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6799000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1766000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1195000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1623000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7768000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2025000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2081000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1980000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1666000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>957000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1617000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1734000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1703000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1410000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1937000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1402000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1046000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1441000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3199000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2963000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2893000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1254000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1478000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1354000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1776000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1700000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2130000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4005000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3156000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3961000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2528000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3540000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4562000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3610000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1913000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3766000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4050000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3942000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2514000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3408000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3586000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3582000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2045000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3591000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-521000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-279000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-238000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-237000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-461000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-357000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-279000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-282000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-444000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-295000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-257000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-359000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-638000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-382000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-332000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-554000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-516000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>780000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-571000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-425000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>318000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-474000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1328000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-886000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4325000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-996000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-685000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-337000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,13 +5536,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7368000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5319,11 +5552,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -5331,11 +5564,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5343,11 +5576,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5355,16 +5588,19 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8540000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1013000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>453000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-388000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E101" s="3">
         <v>166000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>66000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>79000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-64000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>76000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-104000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>80000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-382000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5857000</v>
+      </c>
+      <c r="E102" s="3">
         <v>664000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3077000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1389000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2734000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3184000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-729000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1554000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6633000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>954000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>284000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>565000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-167000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13294000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12694000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13030000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12538000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11622000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12708000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12716000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12482000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12024000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11402000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11876000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11358000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11633000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12929000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13164000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12692000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12494000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11785000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12556000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3754000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3833000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3940000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3568000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3337000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3555000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3834000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3616000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3315000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3165000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8368000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7646000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7874000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4257000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4393000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4292000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4210000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4063000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4426000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9540000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8861000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9090000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8970000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8285000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9153000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8882000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8866000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8709000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8237000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3508000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3712000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3759000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8672000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8771000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8400000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8284000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7722000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8130000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2127000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2297000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2143000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2010000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2034000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2193000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2175000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2054000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1964000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4553000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4217000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4307000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2111000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2251000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2049000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2029000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1984000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2173000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,70 +1090,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E14" s="3">
         <v>671000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>66000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1067000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>731000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>302000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>784000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>505000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>456000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>453000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1116000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>744000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>181000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>170000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>166000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>68000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>220000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-152000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,58 +1170,61 @@
         <v>27000</v>
       </c>
       <c r="F15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G15" s="3">
         <v>12000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>145000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>15000</v>
       </c>
       <c r="P15" s="3">
         <v>15000</v>
       </c>
       <c r="Q15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R15" s="3">
         <v>140000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>16000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>13000</v>
       </c>
       <c r="V15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9815000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10279000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10386000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10126000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9270000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9964000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10893000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10124000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9160000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10515000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9119000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3411000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10482000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11094000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10335000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10214000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9863000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11101000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2415000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2644000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2412000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2352000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2744000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1823000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2358000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2663000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2242000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1361000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2239000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8222000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2447000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2070000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2357000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2280000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1922000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1455000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E20" s="3">
         <v>237000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>116000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>207000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>156000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>116000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>139000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>265000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>176000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>124000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>220000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>241000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>186000</v>
       </c>
       <c r="P20" s="3">
         <v>186000</v>
       </c>
       <c r="Q20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="R20" s="3">
         <v>439000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>276000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>227000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>205000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-209000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5151000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4349000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4377000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4353000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4211000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4270000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3899000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4025000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3885000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3807000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3217000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3845000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9688000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3887000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3977000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4111000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3861000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3903000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2946000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E22" s="3">
         <v>202000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>220000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>239000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>203000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>216000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>205000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>226000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>248000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>229000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>237000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>224000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>208000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>197000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>192000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>168000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3506000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2450000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2559000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2410000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2288000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2621000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1759000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2407000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2634000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2140000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1333000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2251000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8171000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2409000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2301000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2436000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2315000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1947000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1078000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E24" s="3">
         <v>391000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>460000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>478000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>421000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>448000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>630000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>366000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>525000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>272000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>113000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>369000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>443000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>381000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>386000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>353000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>336000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>282000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>142000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2059000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2099000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1932000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1867000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2173000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1129000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2041000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2109000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1868000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1220000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1882000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7728000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2028000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1915000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2083000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1979000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1665000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>936000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2896000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2059000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2094000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1935000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1867000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2176000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1125000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2042000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2108000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1867000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1221000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1881000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7728000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1915000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2081000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1980000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1666000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>957000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1945,35 +2005,35 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4691000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-101000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-26000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-258000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>40000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>61000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-237000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-116000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-207000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-156000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-116000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-139000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-265000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-176000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-124000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-220000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-186000</v>
       </c>
       <c r="P32" s="3">
         <v>-186000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-439000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-276000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-227000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-205000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>209000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2896000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2059000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2094000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1935000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1867000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2176000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1125000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2042000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6799000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1766000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1195000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1623000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7768000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1976000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2081000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1980000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1666000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>957000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2896000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2059000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2094000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1935000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1867000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2176000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1125000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2042000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6799000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1766000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1195000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1623000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7768000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1976000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2081000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1980000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1666000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>957000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,114 +2559,118 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3801000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9658000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8994000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5917000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4528000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11112000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8378000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9991000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6807000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13271000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12446000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5813000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9485000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9421000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8437000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8237000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7007000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E42" s="3">
         <v>276000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1905000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1876000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>376000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>445000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>334000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>339000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>344000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>305000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2693000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>710000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>700000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>609000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>24</v>
@@ -2592,448 +2681,472 @@
       <c r="T42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42" s="3">
         <v>770000</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8654000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8481000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8456000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8299000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7952000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8795000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8555000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8070000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8252000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7845000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8975000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8766000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8989000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9116000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8802000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8482000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8380000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8234000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8202000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7111000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6997000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7131000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7136000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6904000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6398000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5982000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6123000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6094000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5728000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6956000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6952000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7097000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7227000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6867000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6954000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6901000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6583000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6255000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2643000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2523000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2668000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2733000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2932000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3521000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3765000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3639000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31763000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3668000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3685000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2833000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10286000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3054000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2609000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2820000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2712000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2697000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23808000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22198000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29673000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28973000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23882000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23098000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29504000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26675000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28320000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52448000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35563000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34113000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32065000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33051000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28208000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27466000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26538000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25766000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24931000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12014000</v>
+      </c>
+      <c r="E47" s="3">
         <v>11628000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12533000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11603000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11050000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10521000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11162000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11062000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11638000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10122000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10697000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10807000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10359000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10521000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26660000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28692000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27926000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27722000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16500000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13344000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13204000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13939000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13337000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13595000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13560000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13746000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13560000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14052000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14136000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15696000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15745000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15957000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16677000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16464000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16263000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16206000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15772000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15641000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64584000</v>
+      </c>
+      <c r="E49" s="3">
         <v>64967000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>66808000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>66415000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65769000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66388000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55311000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56000000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53754000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53316000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>74013000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>72989000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>74610000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66250000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>61747000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62551000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>63079000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62726000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62320000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,52 +3272,55 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10265000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9755000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9106000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9350000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9467000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9530000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8647000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8674000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8530000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7924000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9594000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9340000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9067000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>24</v>
@@ -3212,14 +3331,17 @@
       <c r="T52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="3">
         <v>10732000</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>124015000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121752000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>132059000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>129678000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123763000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123097000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118370000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115971000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116294000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137946000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>145563000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>142994000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>142058000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>135524000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133079000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>134972000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>133749000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>131986000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>130124000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4811000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5040000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5403000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4705000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4820000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4828000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5424000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4669000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4752000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4638000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5556000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4970000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5486000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4994000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5169000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4685000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4691000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4566000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4873000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9278000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10400000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10071000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9994000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9133000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11205000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7277000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8283000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8151000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7701000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9678000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9177000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9596000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10911000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5308000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6997000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7562000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8324000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5905000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15544000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14720000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17585000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17139000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15429000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15261000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15563000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15268000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17208000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43788000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14373000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14180000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12861000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12318000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12926000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13697000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13893000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13440000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11431000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29633000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30160000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33059000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31838000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29382000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31294000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28264000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30111000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56127000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29607000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28327000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27943000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28223000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23403000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25379000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26146000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26330000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22209000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26491000</v>
+      </c>
+      <c r="E61" s="3">
         <v>27399000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27978000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28181000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25653000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25490000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22056000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21833000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22116000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22889000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22470000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22605000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22760000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23199000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23224000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23163000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22999000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22933000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17897000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13763000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13604000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14356000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15105000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14843000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15336000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12499000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13320000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12563000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11623000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14794000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14043000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14454000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12891000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12225000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14060000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14626000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15077000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15127000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69973000</v>
+      </c>
+      <c r="E66" s="3">
         <v>71229000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75461000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75194000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69951000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>72194000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62896000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63447000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64868000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90717000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66949000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65056000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65243000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64426000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58911000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62661000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63830000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64400000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55292000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,52 +4452,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53194000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49670000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55738000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53615000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52936000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50035000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54618000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51668000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50557000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46348000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>77739000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>77063000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>75934000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>24</v>
@@ -4344,8 +4517,11 @@
       <c r="V72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54042000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50523000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56598000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54484000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53812000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50903000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55474000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52524000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51426000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47229000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78614000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77938000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76815000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71098000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74168000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72311000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69919000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67586000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>74832000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2896000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2059000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2094000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1935000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1867000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2176000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1125000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2042000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6799000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1766000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1195000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1623000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7768000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1976000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2081000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1980000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1666000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>957000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1697000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1617000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1734000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1703000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1410000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1937000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1402000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1046000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1441000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3199000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2963000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2893000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1254000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1468000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1478000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1354000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1776000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1700000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4132000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2130000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4005000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3156000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3961000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2528000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3540000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4562000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3610000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1913000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3766000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4050000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3942000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2514000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3408000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3586000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3582000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2045000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3591000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-246000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-521000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-279000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-238000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-237000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-461000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-357000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-279000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-282000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-444000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-295000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-257000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-359000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-638000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-382000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-332000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-554000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-516000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E94" s="3">
         <v>780000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-571000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-425000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>318000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-474000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1328000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-886000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4325000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-996000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-685000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-337000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,17 +5769,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5555,11 +5788,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5567,11 +5800,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5579,11 +5812,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5591,16 +5824,19 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2939000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1013000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>453000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-388000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-227000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>166000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>66000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>79000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-64000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>76000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-104000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>80000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>51000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-382000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>664000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3077000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1389000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2734000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3184000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-729000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1554000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6633000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>954000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>284000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>565000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-167000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13367000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13294000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12694000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13030000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12538000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11622000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12708000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12716000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12482000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12024000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11402000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11876000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11358000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11633000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12929000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13164000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12692000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12494000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11785000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12556000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3848000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3754000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3833000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3940000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3568000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3337000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3555000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3834000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3616000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3315000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3165000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8368000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7646000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7874000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4257000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4393000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4292000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4210000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4063000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4426000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9519000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9540000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8861000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9090000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8970000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8285000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9153000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8882000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8866000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8709000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8237000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3508000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3712000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3759000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8672000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8771000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8400000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8284000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7722000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8130000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +975,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2261000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2284000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2127000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2297000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2143000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2010000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2034000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2193000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2175000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2054000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1964000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4553000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4217000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4307000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2111000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2251000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2049000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2029000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1984000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2173000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,78 +1109,84 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-139000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>671000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>66000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1067000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>731000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>302000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>784000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>505000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>456000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>453000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1116000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>744000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>181000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>170000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>166000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>68000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>220000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-152000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="E15" s="3">
         <v>27000</v>
@@ -1173,58 +1195,61 @@
         <v>27000</v>
       </c>
       <c r="G15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H15" s="3">
         <v>12000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>145000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>15000</v>
       </c>
       <c r="Q15" s="3">
         <v>15000</v>
       </c>
       <c r="R15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S15" s="3">
         <v>140000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>13000</v>
       </c>
       <c r="W15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10134000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9815000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10279000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10386000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10126000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9270000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9964000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10893000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10124000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9160000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10515000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9119000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3411000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10482000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11094000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10335000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10214000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9863000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11101000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3233000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3479000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2415000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2644000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2412000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2352000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2744000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1823000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2358000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2663000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2242000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1361000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2239000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8222000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2447000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2070000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2357000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2280000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1922000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1455000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E20" s="3">
         <v>228000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>237000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>116000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>207000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>156000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>116000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>139000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>265000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>176000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>124000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>220000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>241000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>186000</v>
       </c>
       <c r="Q20" s="3">
         <v>186000</v>
       </c>
       <c r="R20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="S20" s="3">
         <v>439000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>276000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>227000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>205000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-209000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4885000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5151000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4349000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4377000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4353000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4211000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4270000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3899000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4025000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3885000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3807000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3217000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3845000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9688000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3887000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3977000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4111000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3861000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3903000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2946000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E22" s="3">
         <v>201000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>202000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>220000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>239000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>203000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>216000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>205000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>226000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>248000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>229000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>237000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>224000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>208000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>197000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>192000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>180000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>168000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3230000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3506000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2450000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2559000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2410000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2288000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2621000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1759000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2407000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2634000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2140000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1333000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2251000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8171000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2409000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2301000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2436000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2315000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1947000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1078000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E24" s="3">
         <v>611000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>391000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>460000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>478000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>421000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>448000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>630000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>366000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>525000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>272000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>113000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>369000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>443000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>381000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>386000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>353000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>336000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>282000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>142000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2895000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2059000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2099000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1932000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1867000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2173000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1129000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2041000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2109000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1868000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1220000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1882000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7728000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2028000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1915000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2083000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1979000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1665000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>936000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2896000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2059000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2094000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1935000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1867000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2176000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1125000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2042000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2108000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1867000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1221000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1881000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7728000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2025000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1915000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2081000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1980000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1666000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>957000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2008,35 +2068,35 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4691000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-101000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-26000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-258000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>40000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>61000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-228000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-237000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-116000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-207000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-156000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-116000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-139000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-265000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-176000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-124000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-220000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-186000</v>
       </c>
       <c r="Q32" s="3">
         <v>-186000</v>
       </c>
       <c r="R32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-439000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-276000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-227000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-205000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>209000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2896000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2059000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2094000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1935000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1867000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2176000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1125000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2042000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6799000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1766000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1195000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1623000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7768000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2025000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1976000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2081000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1980000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1666000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>957000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2896000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2059000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2094000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1935000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1867000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2176000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1125000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2042000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6799000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1766000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1195000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1623000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7768000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2025000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1976000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2081000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1980000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1666000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>957000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,120 +2645,124 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7211000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3801000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9658000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8994000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5917000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4528000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11112000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8378000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9991000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6807000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13271000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14000000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12446000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5813000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9485000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9421000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8437000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8237000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7007000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E42" s="3">
         <v>239000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>276000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1905000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1876000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>376000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>445000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>334000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>339000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>344000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>305000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2693000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>710000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>700000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>609000</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>24</v>
@@ -2684,469 +2773,493 @@
       <c r="U42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W42" s="3">
         <v>770000</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8632000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8654000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8481000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8456000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8299000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7952000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8795000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8555000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8070000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8252000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7845000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8975000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8766000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8989000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9116000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8802000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8482000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8380000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8234000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8202000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6885000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7111000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6997000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7136000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6904000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6398000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5982000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6123000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6094000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5728000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6956000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6952000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7097000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7227000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6867000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6954000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6901000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6583000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6255000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2574000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2687000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2643000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2523000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2668000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2733000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2932000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3521000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3765000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3639000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31763000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3668000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3685000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2833000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10286000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3054000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2609000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2820000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2712000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2697000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26253000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23808000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22198000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29673000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28973000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23882000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23098000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29504000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26675000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28320000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52448000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35563000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34113000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32065000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33051000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28208000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27466000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26538000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25766000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24931000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12347000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12014000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11628000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12533000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11603000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11050000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10521000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11162000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11062000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11638000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10122000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10697000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10807000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10359000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10521000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26660000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28692000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27926000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27722000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>16500000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13157000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13344000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13204000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13939000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13337000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13595000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13560000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13746000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13560000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14052000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14136000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15696000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15745000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15957000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16677000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16464000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16263000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16206000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15772000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15641000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63523000</v>
+      </c>
+      <c r="E49" s="3">
         <v>64584000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64967000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>66808000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66415000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>65769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66388000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>55311000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56000000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53754000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53316000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>74013000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>72989000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74610000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66250000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>61747000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62551000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>63079000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62726000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>62320000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,55 +3391,58 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5929000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10265000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9755000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9106000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9350000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9467000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9530000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8647000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8674000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8530000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7924000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9594000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9340000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9067000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>24</v>
@@ -3334,14 +3453,17 @@
       <c r="U52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W52" s="3">
         <v>10732000</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121209000</v>
+      </c>
+      <c r="E54" s="3">
         <v>124015000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121752000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>132059000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>129678000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123763000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123097000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118370000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115971000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116294000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137946000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145563000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>142994000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>142058000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>135524000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133079000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>134972000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>133749000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>131986000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>130124000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4665000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4811000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5040000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5403000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4705000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4820000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4828000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5424000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4669000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4752000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4638000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5556000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4970000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5486000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4994000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5169000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4685000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4691000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4566000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4873000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9528000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9278000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10400000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10071000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9994000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9133000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11205000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7277000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8283000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8151000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7701000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9678000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9177000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9596000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10911000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5308000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6997000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7562000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8324000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5905000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15687000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15544000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14720000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17585000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17139000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15429000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15261000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15563000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15268000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17208000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43788000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14373000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14180000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12861000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12318000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12926000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13697000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13893000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13440000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11431000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29880000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29633000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30160000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33059000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31838000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29382000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31294000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28264000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28220000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30111000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56127000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29607000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28327000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27943000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28223000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23403000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25379000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26146000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26330000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22209000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24715000</v>
+      </c>
+      <c r="E61" s="3">
         <v>26491000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>27399000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27978000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28181000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25653000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25490000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22056000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21833000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22116000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22889000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22470000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22605000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22760000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23199000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23224000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23163000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22999000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22933000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17897000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9677000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13763000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13604000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14356000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15105000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14843000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15336000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12499000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13320000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12563000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11623000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14794000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14043000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14454000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12891000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12225000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14060000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14626000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15077000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15127000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64438000</v>
+      </c>
+      <c r="E66" s="3">
         <v>69973000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71229000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75461000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75194000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69951000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72194000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62896000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63447000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64868000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90717000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66949000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65056000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65243000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64426000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58911000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62661000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63830000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64400000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55292000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,55 +4625,58 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>55917000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53194000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49670000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55738000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53615000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52936000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50035000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54618000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51668000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50557000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46348000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>77739000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>77063000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>75934000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>24</v>
@@ -4520,8 +4693,11 @@
       <c r="W72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56771000</v>
+      </c>
+      <c r="E76" s="3">
         <v>54042000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50523000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56598000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54484000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53812000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50903000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55474000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52524000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51426000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47229000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78614000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77938000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76815000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71098000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74168000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72311000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>69919000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67586000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74832000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2896000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2059000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2094000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1935000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1867000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2176000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1125000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2042000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6799000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1766000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1195000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1623000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7768000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2025000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1976000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2081000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1980000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1666000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>957000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1444000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1697000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1617000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1734000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1703000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1410000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1937000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1402000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1046000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1441000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3199000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2963000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2893000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1254000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1468000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1478000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1354000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1776000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1700000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4925000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4132000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2130000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4005000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3156000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3961000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2528000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3540000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4562000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3610000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1913000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3766000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4050000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3942000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2514000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3408000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3586000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3582000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2045000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3591000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-321000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-246000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-521000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-279000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-238000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-237000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-461000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-357000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-279000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-282000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-444000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-295000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-257000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-359000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-638000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-382000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-332000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-554000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-516000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1232000</v>
+      </c>
+      <c r="E94" s="3">
         <v>97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>780000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-571000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-425000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>318000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-474000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1328000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-886000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4325000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-996000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-685000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-337000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6002,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5779,11 +6012,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5791,11 +6024,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5803,11 +6036,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5815,11 +6048,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5827,16 +6060,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1534000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1013000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>453000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-388000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-227000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>166000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>66000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>38000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>79000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-64000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>76000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>80000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>51000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-382000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1316000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>664000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3077000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1389000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2734000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3184000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-729000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1554000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6633000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>954000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>284000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>565000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-167000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13522000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13367000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13294000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12694000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13030000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12538000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11622000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12708000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12716000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12482000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12024000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11402000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11876000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11358000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11633000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12929000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13164000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12692000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12494000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11785000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12556000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3848000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3754000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3833000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3940000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3568000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3337000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3555000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3834000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3616000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3315000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3165000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8368000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7646000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7874000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4257000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4393000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4292000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4210000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4063000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4426000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9522000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9519000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9540000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8861000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9090000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8970000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8285000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9153000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8882000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8866000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8709000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8237000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3508000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3712000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3759000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8672000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8771000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8400000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8284000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7722000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8130000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,76 +988,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2369000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2261000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2284000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2127000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2297000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2143000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2010000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2034000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2193000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2175000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2054000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1964000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4553000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4217000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4307000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2111000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2251000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2049000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2029000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1984000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2173000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,84 +1128,90 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>212000</v>
+        <v>305000</v>
       </c>
       <c r="E14" s="3">
-        <v>-139000</v>
+        <v>271000</v>
       </c>
       <c r="F14" s="3">
-        <v>671000</v>
+        <v>-136000</v>
       </c>
       <c r="G14" s="3">
+        <v>690000</v>
+      </c>
+      <c r="H14" s="3">
         <v>66000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1067000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>731000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>302000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>784000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>505000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>456000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>453000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1116000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>744000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>181000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>170000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>166000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>68000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>220000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-152000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="3">
         <v>25000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>27000</v>
       </c>
       <c r="F15" s="3">
         <v>27000</v>
@@ -1198,58 +1220,61 @@
         <v>27000</v>
       </c>
       <c r="H15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I15" s="3">
         <v>12000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>145000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>15000</v>
       </c>
       <c r="R15" s="3">
         <v>15000</v>
       </c>
       <c r="S15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T15" s="3">
         <v>140000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>13000</v>
       </c>
       <c r="X15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10960000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10134000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9815000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10279000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10386000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10126000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9270000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9964000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10893000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10124000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9160000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10515000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9119000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3411000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10482000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11094000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10335000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10214000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9863000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11101000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2562000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3233000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3479000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2415000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2644000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2412000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2352000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2744000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1823000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2358000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2663000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2242000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1361000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8222000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2447000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2070000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2357000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2280000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1922000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1455000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>14595000</v>
+      </c>
+      <c r="E20" s="3">
         <v>199000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>228000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>237000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>116000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>207000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>156000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>116000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>139000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>265000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>176000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>124000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>220000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>241000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>186000</v>
       </c>
       <c r="R20" s="3">
         <v>186000</v>
       </c>
       <c r="S20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="T20" s="3">
         <v>439000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>276000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>227000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>205000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-209000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>18676000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4885000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5151000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4349000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4377000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4353000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4211000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4270000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3899000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4025000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3885000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3807000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3217000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3845000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9688000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3887000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3977000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4111000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3861000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3903000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2946000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E22" s="3">
         <v>202000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>202000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>220000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>239000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>203000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>216000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>205000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>226000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>248000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>229000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>237000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>224000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>208000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>197000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>192000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>180000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>168000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>16951000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3230000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3506000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2450000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2559000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2410000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2288000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2621000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1759000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2407000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2634000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2140000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1333000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2251000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8171000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2409000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2301000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2436000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2315000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1947000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1078000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E24" s="3">
         <v>472000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>611000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>391000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>460000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>478000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>421000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>448000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>630000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>366000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>525000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>272000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>113000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>369000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>443000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>381000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>386000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>353000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>336000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>282000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>142000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>16306000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2758000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2895000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2059000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2099000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1932000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1867000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2173000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1129000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2041000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2109000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1868000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1220000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1882000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7728000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2028000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1915000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2083000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1979000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1665000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>936000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>16308000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2758000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2896000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2059000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2094000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1935000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1867000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2176000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1125000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2042000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2108000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1867000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1221000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1881000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7728000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2025000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1915000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2081000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1980000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1666000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>957000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2071,35 +2131,35 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>4691000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-101000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-26000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-258000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>40000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>61000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14595000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-199000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-228000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-237000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-116000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-207000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-156000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-116000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-139000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-265000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-176000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-124000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-220000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-186000</v>
       </c>
       <c r="R32" s="3">
         <v>-186000</v>
       </c>
       <c r="S32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-439000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-276000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-227000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-205000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>209000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16308000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2758000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2896000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2059000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2094000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1935000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1867000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2176000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1125000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2042000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6799000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1766000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1195000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1623000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7768000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2025000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1976000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2081000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1980000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1666000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>957000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16308000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2758000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2896000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2059000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2094000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1935000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1867000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2176000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1125000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2042000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6799000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1766000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1195000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1623000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7768000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2025000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1976000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2081000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1980000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1666000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>957000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,126 +2731,130 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12407000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7211000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5117000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3801000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9658000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8994000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5917000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4528000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11112000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8378000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9991000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6807000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13271000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14000000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12446000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5813000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9485000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9421000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8437000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8237000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7007000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15922000</v>
+      </c>
+      <c r="E42" s="3">
         <v>951000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>239000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>276000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1905000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1876000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>376000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>445000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>334000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>339000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>344000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>305000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2693000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>710000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>609000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>24</v>
@@ -2776,490 +2865,514 @@
       <c r="V42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X42" s="3">
         <v>770000</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8283000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8632000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8654000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8481000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8456000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8299000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7952000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8795000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8555000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8070000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8252000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7845000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8975000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8766000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8989000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9116000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8802000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8482000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8380000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8234000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8202000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6666000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6885000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7111000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6997000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7131000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7136000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6904000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6398000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5982000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6123000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6094000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5728000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6956000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6952000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7097000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7227000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6867000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6954000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6901000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6583000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6255000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2440000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2574000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2687000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2643000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2523000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2668000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2733000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2932000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3521000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3765000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3639000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31763000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3668000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3685000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2833000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10286000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3054000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2609000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2820000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2712000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2697000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45718000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26253000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23808000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22198000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29673000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28973000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23882000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23098000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29504000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26675000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28320000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52448000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35563000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34113000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32065000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33051000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28208000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27466000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26538000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25766000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24931000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3241000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12347000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12014000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11628000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12533000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11603000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11050000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10521000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11162000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11062000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11638000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10122000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10697000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10807000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10359000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10521000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26660000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28692000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27926000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27722000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>16500000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13106000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13157000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13344000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13204000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13939000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13337000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13595000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13560000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13746000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13560000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14052000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14136000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15696000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15745000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15957000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16677000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16464000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16263000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16206000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15772000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15641000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63777000</v>
+      </c>
+      <c r="E49" s="3">
         <v>63523000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64584000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64967000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66808000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66415000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>65769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66388000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55311000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56000000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53754000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53316000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>74013000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>72989000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74610000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>66250000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>61747000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62551000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>63079000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>62726000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>62320000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,58 +3510,61 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5953000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5929000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10265000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9755000</v>
       </c>
-      <c r="G52" s="3">
-        <v>9106000</v>
-      </c>
       <c r="H52" s="3">
+        <v>4825000</v>
+      </c>
+      <c r="I52" s="3">
         <v>9350000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9467000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9530000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8647000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8674000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8530000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7924000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9594000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9340000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9067000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>24</v>
@@ -3456,14 +3575,17 @@
       <c r="V52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X52" s="3">
         <v>10732000</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131795000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121209000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>124015000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121752000</v>
       </c>
-      <c r="G54" s="3">
-        <v>132059000</v>
-      </c>
       <c r="H54" s="3">
+        <v>127778000</v>
+      </c>
+      <c r="I54" s="3">
         <v>129678000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123763000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123097000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118370000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115971000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116294000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137946000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>145563000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>142994000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>142058000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>135524000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>133079000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>134972000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133749000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>131986000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>130124000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5553000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4665000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4811000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5040000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5403000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4705000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4820000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4828000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5424000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4669000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4752000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4638000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5556000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4970000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5486000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4994000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5169000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4685000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4691000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4566000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4873000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6502000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9528000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9278000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10400000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10071000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9994000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9133000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11205000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7277000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8283000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8151000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7701000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9678000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9177000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9596000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10911000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5308000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6997000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7562000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8324000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5905000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18153000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15687000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15544000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14720000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17585000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17139000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15429000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15261000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15563000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15268000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17208000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43788000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14373000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14180000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12861000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12318000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12926000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13697000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13893000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13440000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11431000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30208000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29880000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29633000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30160000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33059000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31838000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29382000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31294000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28264000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28220000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30111000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56127000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29607000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28327000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27943000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28223000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23403000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25379000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26146000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26330000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22209000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24523000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24715000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26491000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>27399000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27978000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>28181000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25653000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25490000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22056000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21833000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22116000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22889000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22470000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22605000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22760000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23199000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23224000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23163000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22999000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22933000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17897000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9242000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9677000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13763000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13604000</v>
       </c>
-      <c r="G62" s="3">
-        <v>14356000</v>
-      </c>
       <c r="H62" s="3">
+        <v>17009000</v>
+      </c>
+      <c r="I62" s="3">
         <v>15105000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14843000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15336000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12499000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13320000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12563000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11623000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14794000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14043000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14454000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12891000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12225000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14060000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14626000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15077000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15127000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64140000</v>
+      </c>
+      <c r="E66" s="3">
         <v>64438000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69973000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71229000</v>
       </c>
-      <c r="G66" s="3">
-        <v>75461000</v>
-      </c>
       <c r="H66" s="3">
+        <v>71180000</v>
+      </c>
+      <c r="I66" s="3">
         <v>75194000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69951000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72194000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62896000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63447000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64868000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90717000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66949000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65056000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65243000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64426000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58911000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62661000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63830000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64400000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55292000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,58 +4798,61 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66802000</v>
+      </c>
+      <c r="E72" s="3">
         <v>55917000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53194000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49670000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55738000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53615000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52936000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50035000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54618000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51668000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50557000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46348000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>77739000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>77063000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>75934000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>24</v>
@@ -4696,8 +4869,11 @@
       <c r="X72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67655000</v>
+      </c>
+      <c r="E76" s="3">
         <v>56771000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54042000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50523000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56598000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54484000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53812000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50903000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55474000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52524000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51426000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47229000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78614000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77938000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76815000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71098000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74168000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72311000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>69919000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67586000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>74832000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16308000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2758000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2896000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2059000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2094000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1935000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1867000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2176000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1125000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2042000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6799000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1766000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1195000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1623000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7768000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2025000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1976000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2081000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1980000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1666000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>957000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1519000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1453000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1444000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1697000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1617000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1734000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1703000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1410000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1937000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1402000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1046000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1441000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3199000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2963000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2893000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1254000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1468000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1478000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1354000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1776000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1700000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3884000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4925000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4132000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2130000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4005000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3156000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3961000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2528000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3540000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4562000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3610000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1913000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3766000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4050000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3942000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2514000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3408000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3586000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3582000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2045000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3591000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-351000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-321000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-521000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-279000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-238000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-237000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-461000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-357000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-279000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-282000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-444000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-295000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-257000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-359000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-638000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-382000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-332000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-554000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-516000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4563000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>780000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-571000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-425000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>318000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-474000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1328000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-886000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4325000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-996000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-685000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-337000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6235,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6015,11 +6248,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6027,11 +6260,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6039,11 +6272,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6051,11 +6284,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6063,16 +6296,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3251000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1013000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>453000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-388000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-65000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-227000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>166000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>66000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>38000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>79000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-64000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>76000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-104000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>80000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>51000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-382000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5196000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2094000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1316000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>664000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3077000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1389000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2734000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3184000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-729000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6633000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>954000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>284000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>565000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-167000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12814000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13522000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13367000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13294000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12694000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13030000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12538000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11622000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12708000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12716000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12482000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12024000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11402000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11876000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11358000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11633000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12929000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13164000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12692000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12494000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11785000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12556000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3755000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3848000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3754000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3833000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3940000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3568000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3337000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3555000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3834000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3616000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3315000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3165000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8368000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7646000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7874000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4257000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4393000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4292000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4210000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4063000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4426000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9059000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9522000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9519000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9540000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8861000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9090000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8970000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8285000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9153000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8882000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8866000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8709000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8237000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3508000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3712000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3759000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8672000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8771000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8400000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8284000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7722000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8130000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,79 +1001,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2369000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2261000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2284000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2127000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2297000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2143000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2010000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2034000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2193000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2175000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2054000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1964000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4553000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4217000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4307000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2111000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2251000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2049000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2029000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1984000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2173000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,90 +1147,96 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E14" s="3">
         <v>305000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>271000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-136000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>690000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>66000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1067000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>731000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>302000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>784000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>505000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>456000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>453000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>744000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>181000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>170000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>166000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>68000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>220000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-152000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E15" s="3">
         <v>30000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>27000</v>
       </c>
       <c r="G15" s="3">
         <v>27000</v>
@@ -1223,58 +1245,61 @@
         <v>27000</v>
       </c>
       <c r="I15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J15" s="3">
         <v>12000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>145000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>15000</v>
       </c>
       <c r="S15" s="3">
         <v>15000</v>
       </c>
       <c r="T15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U15" s="3">
         <v>140000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>13000</v>
       </c>
       <c r="Y15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9962000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10960000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10134000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9815000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10279000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10386000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10126000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9270000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9964000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10893000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10124000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9160000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10515000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9119000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3411000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10482000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11094000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10335000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10214000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9863000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11101000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2852000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2562000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3233000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3479000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2415000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2644000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2412000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2352000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2744000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1823000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2358000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2663000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2242000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2239000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8222000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2447000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2070000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2357000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2280000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1922000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1455000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14595000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>199000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>228000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>237000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>116000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>207000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>156000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>139000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>265000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>176000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>124000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>220000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>241000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>186000</v>
       </c>
       <c r="S20" s="3">
         <v>186000</v>
       </c>
       <c r="T20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="U20" s="3">
         <v>439000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>276000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>227000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>205000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-209000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E21" s="3">
         <v>18676000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4885000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5151000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4349000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4377000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4353000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4211000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4270000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3899000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4025000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3885000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3807000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3217000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3845000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9688000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3887000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3977000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4111000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3861000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3903000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2946000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E22" s="3">
         <v>206000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>202000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>202000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>201000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>220000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>239000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>203000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>216000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>205000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>226000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>248000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>229000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>237000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>224000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>208000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>197000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>192000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>180000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>168000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2669000</v>
+      </c>
+      <c r="E23" s="3">
         <v>16951000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3230000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3506000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2450000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2559000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2410000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2288000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2621000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1759000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2407000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2634000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2140000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1333000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2251000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8171000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2409000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2301000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2436000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2315000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1947000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1078000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E24" s="3">
         <v>645000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>472000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>611000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>391000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>460000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>478000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>421000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>448000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>630000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>366000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>525000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>272000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>113000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>369000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>443000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>381000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>386000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>353000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>336000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>282000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>142000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="E26" s="3">
         <v>16306000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2758000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2895000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2059000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2099000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1932000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1867000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2173000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1129000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2041000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2109000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1868000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1882000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7728000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2028000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1915000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2083000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1979000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1665000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>936000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16308000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2758000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2896000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2059000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2094000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1935000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1867000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2176000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1125000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2042000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2108000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1867000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1221000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1881000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7728000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2025000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1915000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2081000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1980000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1666000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>957000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2134,35 +2194,35 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>4691000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-101000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-258000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>40000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>61000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-199000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-228000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-237000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-116000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-207000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-156000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-139000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-265000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-176000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-124000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-186000</v>
       </c>
       <c r="S32" s="3">
         <v>-186000</v>
       </c>
       <c r="T32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-439000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-276000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-227000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-205000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>209000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16308000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2758000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2896000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2059000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2094000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1935000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1867000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2176000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1125000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2042000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6799000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1766000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1623000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7768000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2025000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1976000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2081000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1980000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1666000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>957000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16308000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2758000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2896000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2059000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2094000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1935000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1867000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2176000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1125000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2042000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6799000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1766000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1623000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7768000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2025000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1976000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2081000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1980000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1666000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>957000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,132 +2817,136 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13852000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12407000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7211000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5117000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3801000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9658000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8994000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5917000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4528000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11112000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8378000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9991000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6807000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13271000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14000000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12446000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5813000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9485000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9421000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8437000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8237000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7007000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4962000</v>
+      </c>
+      <c r="E42" s="3">
         <v>15922000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>951000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>239000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>276000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1905000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1876000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>376000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>445000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>334000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>339000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>344000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>305000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2693000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>710000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>609000</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>24</v>
@@ -2868,511 +2957,535 @@
       <c r="W42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y42" s="3">
         <v>770000</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8678000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8283000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8632000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8654000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8481000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8456000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8299000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7952000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8795000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8555000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8070000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8252000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7845000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8975000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8766000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8989000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9116000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8802000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8482000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8380000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8234000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8202000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6997000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6666000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6885000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7111000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6997000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7131000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7136000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6904000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6398000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5982000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6123000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6094000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5728000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6956000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6952000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7097000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7227000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6867000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6954000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6901000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6583000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6255000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2747000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2440000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2574000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2687000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2643000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2523000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2668000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2733000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2932000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3521000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3765000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3639000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31763000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3668000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3685000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2833000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10286000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3054000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2609000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2820000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2712000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2697000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37236000</v>
+      </c>
+      <c r="E46" s="3">
         <v>45718000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26253000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23808000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22198000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29673000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28973000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23882000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23098000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29504000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26675000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28320000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52448000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35563000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34113000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32065000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33051000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28208000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27466000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26538000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25766000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24931000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2906000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3241000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12347000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12014000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11628000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12533000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11603000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11050000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10521000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11162000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11062000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11638000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10122000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10697000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10807000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10359000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10521000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26660000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28692000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27926000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27722000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>16500000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12861000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13106000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13157000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13344000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13204000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13939000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13337000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13595000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13560000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13746000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13560000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14052000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14136000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15696000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15745000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15957000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16677000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16464000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16263000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16206000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15772000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15641000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64489000</v>
+      </c>
+      <c r="E49" s="3">
         <v>63777000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>63523000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64584000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64967000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66808000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66415000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>65769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66388000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55311000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56000000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53754000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53316000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74013000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72989000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>74610000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>66250000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>61747000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62551000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>63079000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>62726000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62320000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,61 +3629,64 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7726000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5953000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5929000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10265000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9755000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4825000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9350000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9467000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9530000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8647000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8674000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8530000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7924000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9594000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9340000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9067000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>24</v>
@@ -3578,14 +3697,17 @@
       <c r="W52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y52" s="3">
         <v>10732000</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125218000</v>
+      </c>
+      <c r="E54" s="3">
         <v>131795000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121209000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>124015000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121752000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127778000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129678000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123763000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123097000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118370000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115971000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116294000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137946000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145563000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>142994000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>142058000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>135524000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>133079000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>134972000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>133749000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>131986000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>130124000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5083000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5553000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4665000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4811000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5040000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5403000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4705000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4820000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4828000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5424000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4669000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4752000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4638000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5556000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4970000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5486000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4994000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5169000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4685000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4691000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4566000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4873000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6902000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6502000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9528000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9278000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10400000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10071000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9994000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9133000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11205000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7277000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8283000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8151000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7701000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9678000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9177000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9596000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10911000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5308000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6997000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7562000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8324000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5905000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17822000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18153000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15687000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15544000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14720000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17585000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17139000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15429000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15261000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15563000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15268000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17208000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43788000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14373000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14180000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12861000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12318000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12926000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13697000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13893000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13440000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11431000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29807000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30208000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29880000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29633000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30160000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33059000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31838000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29382000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31294000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28264000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28220000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30111000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56127000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29607000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28327000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27943000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28223000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23403000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25379000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26146000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26330000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22209000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24373000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24523000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24715000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26491000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>27399000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27978000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>28181000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25653000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25490000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22056000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21833000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22116000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22889000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22470000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22605000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22760000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23199000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23224000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23163000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22999000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22933000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17897000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9334000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9242000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9677000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13763000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13604000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17009000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15105000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14843000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15336000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12499000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13320000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12563000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11623000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14794000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14043000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14454000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12891000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12225000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14060000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14626000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15077000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15127000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63678000</v>
+      </c>
+      <c r="E66" s="3">
         <v>64140000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64438000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69973000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71229000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71180000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75194000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69951000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72194000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62896000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63447000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64868000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90717000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66949000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65056000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65243000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64426000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58911000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62661000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63830000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64400000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55292000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,61 +4971,64 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60699000</v>
+      </c>
+      <c r="E72" s="3">
         <v>66802000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55917000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53194000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49670000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55738000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53615000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52936000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50035000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54618000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51668000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50557000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46348000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>77739000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>77063000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>75934000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>24</v>
@@ -4872,8 +5045,11 @@
       <c r="Y72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61540000</v>
+      </c>
+      <c r="E76" s="3">
         <v>67655000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56771000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54042000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50523000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56598000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54484000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53812000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50903000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55474000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52524000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51426000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47229000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78614000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77938000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76815000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71098000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74168000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72311000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>69919000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67586000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>74832000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16308000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2758000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2896000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2059000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2094000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1935000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1867000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2176000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1125000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2042000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6799000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1766000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1623000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7768000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2025000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1976000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2081000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1980000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1666000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>957000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1519000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1453000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1444000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1697000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1617000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1734000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1703000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1410000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1937000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1402000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1046000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1441000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3199000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2963000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2893000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1254000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1468000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1478000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1354000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1776000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1700000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3884000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4925000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4132000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2130000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4005000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3156000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3961000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2528000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3540000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4562000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3610000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1913000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3766000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4050000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3942000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2514000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3408000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3586000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3582000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2045000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3591000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-460000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-351000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-321000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-521000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-279000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-238000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-237000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-461000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-357000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-279000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-282000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-295000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-257000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-359000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-638000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-382000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-332000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-554000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9365000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4563000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>97000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>780000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-571000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-425000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>318000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-474000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1328000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-886000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4325000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-996000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-685000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-337000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,13 +6468,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7506000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6251,11 +6484,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6263,11 +6496,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6275,11 +6508,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6287,11 +6520,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6299,16 +6532,19 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9528000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1013000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>453000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-388000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-41000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-65000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-227000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>166000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>66000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>38000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>79000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-64000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>76000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-104000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>80000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>51000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-382000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5196000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2094000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1316000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>664000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3077000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1389000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2734000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3184000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-729000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1554000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6633000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>954000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>284000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>565000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13085000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12814000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13522000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13367000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13294000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12694000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13030000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12538000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11622000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12708000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12716000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12482000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12024000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11402000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11876000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11358000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11633000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12929000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13164000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12692000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12494000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11785000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12556000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3749000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3755000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3848000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3754000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3833000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3940000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3568000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3337000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3555000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3834000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3616000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3315000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3165000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8368000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7646000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7874000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4257000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4393000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4292000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4210000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4063000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4426000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9336000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9059000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9522000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9519000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9540000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8861000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9090000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8970000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8285000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9153000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8882000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8866000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8709000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8237000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3508000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3712000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3759000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8672000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8771000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8400000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8284000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7722000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8130000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,82 +1014,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2256000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2369000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2261000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2284000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2127000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2297000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2143000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2010000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2034000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2193000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2175000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2054000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1964000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4553000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4217000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4307000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2111000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2251000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2049000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2029000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1984000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2173000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,96 +1166,102 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="3">
         <v>193000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>305000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>271000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-136000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>690000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>66000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1067000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>731000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>302000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>784000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>505000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>456000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>453000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1116000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>744000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>181000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>170000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>166000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>68000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>220000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-152000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>27000</v>
       </c>
       <c r="H15" s="3">
         <v>27000</v>
@@ -1248,58 +1270,61 @@
         <v>27000</v>
       </c>
       <c r="J15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K15" s="3">
         <v>12000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>145000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>15000</v>
       </c>
       <c r="T15" s="3">
         <v>15000</v>
       </c>
       <c r="U15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V15" s="3">
         <v>140000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>13000</v>
       </c>
       <c r="Z15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10857000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9962000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10960000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10134000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9815000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10279000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10386000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10126000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9270000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9964000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10893000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10124000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9361000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9160000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10515000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9119000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3411000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10482000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11094000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10335000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10214000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9863000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11101000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2852000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2562000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3233000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3479000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2415000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2644000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2412000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2352000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2744000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1823000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2358000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2663000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2242000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1361000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2239000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8222000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2447000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2070000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2357000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2280000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1922000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1455000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14595000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>199000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>228000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>237000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>116000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>207000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>156000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>116000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>139000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>265000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>176000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>124000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>220000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>241000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>186000</v>
       </c>
       <c r="T20" s="3">
         <v>186000</v>
       </c>
       <c r="U20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="V20" s="3">
         <v>439000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>276000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>227000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>205000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-209000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4046000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4275000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18676000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4885000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5151000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4349000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4377000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4353000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4211000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4270000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3899000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4025000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3885000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3807000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3217000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3845000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9688000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3887000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3977000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4111000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3861000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3903000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2946000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E22" s="3">
         <v>201000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>206000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>202000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>202000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>201000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>220000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>239000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>203000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>216000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>205000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>226000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>248000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>229000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>237000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>224000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>208000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>197000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>192000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>180000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>168000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2042000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2669000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16951000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3230000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3506000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2450000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2559000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2410000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2288000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2621000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1759000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2407000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2634000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2140000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1333000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2251000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8171000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2409000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2301000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2436000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2315000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1947000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1078000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E24" s="3">
         <v>450000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>645000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>472000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>611000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>391000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>460000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>478000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>421000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>448000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>630000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>366000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>525000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>272000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>113000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>369000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>443000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>381000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>386000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>353000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>336000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>282000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>142000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1695000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2219000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16306000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2758000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2895000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2059000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2099000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1932000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1867000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2173000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1129000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2041000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2109000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1868000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1220000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1882000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7728000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2028000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1915000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2083000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1979000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1665000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>936000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2222000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16308000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2758000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2896000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2059000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2094000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1935000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1867000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2176000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1125000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2042000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2108000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1221000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1881000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7728000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2025000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1915000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2081000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1980000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1666000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>957000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2197,35 +2257,35 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>4691000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-26000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-258000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>40000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>61000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-199000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-228000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-237000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-116000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-207000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-156000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-116000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-139000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-265000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-176000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-220000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-186000</v>
       </c>
       <c r="T32" s="3">
         <v>-186000</v>
       </c>
       <c r="U32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-439000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-276000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-227000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-205000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>209000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2222000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16308000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2758000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2896000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2059000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2094000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1935000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1867000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2176000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1125000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2042000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6799000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1195000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1623000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7768000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2025000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1976000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2081000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1980000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1666000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>957000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2222000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16308000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2758000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2896000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2059000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2094000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1935000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1867000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2176000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1125000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2042000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6799000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1195000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1623000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7768000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2025000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1976000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2081000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1980000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1666000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>957000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,138 +2903,142 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3625000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13852000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12407000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7211000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5117000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3801000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9658000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8994000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5917000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4528000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11112000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8378000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9991000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6807000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13271000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14000000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12446000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5813000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9485000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9421000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8437000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8237000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7007000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16133000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4962000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15922000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>951000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>239000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>276000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1905000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1876000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>376000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>445000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>334000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>339000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>344000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>305000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2693000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>710000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>609000</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>24</v>
@@ -2960,532 +3049,556 @@
       <c r="X42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z42" s="3">
         <v>770000</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8910000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8678000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8283000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8632000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8654000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8481000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8456000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8299000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7952000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8795000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8555000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8070000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8252000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7845000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8975000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8766000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8989000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9116000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8802000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8482000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8380000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8234000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8202000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6880000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6997000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6666000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6885000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7111000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6997000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7131000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7136000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6904000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6398000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5982000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6123000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6094000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5728000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6956000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6952000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7097000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7227000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6867000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6954000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6901000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6583000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6255000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2747000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2440000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2574000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2687000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2643000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2523000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2668000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2733000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2932000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3521000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3765000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3639000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31763000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3668000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3685000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2833000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10286000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3054000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2609000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2820000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2712000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2697000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38142000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37236000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45718000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26253000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23808000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22198000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29673000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28973000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23882000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23098000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29504000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26675000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28320000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52448000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35563000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34113000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32065000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33051000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28208000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27466000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26538000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>25766000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>24931000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2580000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2906000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3241000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12347000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12014000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11628000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12533000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11603000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11050000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10521000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11162000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11062000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11638000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10122000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10697000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10807000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10359000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10521000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26660000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28692000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27926000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27722000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16500000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12206000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12861000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13106000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13157000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13344000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13204000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13939000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13337000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13595000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13560000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13746000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13560000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14052000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14136000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15696000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15745000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15957000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16677000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16464000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16263000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16206000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15772000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15641000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>62480000</v>
+      </c>
+      <c r="E49" s="3">
         <v>64489000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>63777000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>63523000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64584000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64967000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66808000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66415000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66388000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55311000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56000000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53754000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53316000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74013000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>72989000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>74610000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66250000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>61747000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>62551000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>63079000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62726000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62320000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,64 +3748,67 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7502000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7726000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5953000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5929000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10265000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9755000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4825000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9350000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9467000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9530000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8647000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8674000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8530000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7924000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9594000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9340000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9067000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>24</v>
@@ -3700,14 +3819,17 @@
       <c r="X52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z52" s="3">
         <v>10732000</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AA52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122910000</v>
+      </c>
+      <c r="E54" s="3">
         <v>125218000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131795000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121209000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>124015000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121752000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127778000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>129678000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123763000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123097000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118370000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115971000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116294000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137946000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>145563000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>142994000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>142058000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>135524000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133079000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>134972000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>133749000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>131986000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>130124000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4969000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5083000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5553000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4665000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4811000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5040000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5403000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4705000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4820000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4828000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5424000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4669000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4752000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4638000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5556000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4970000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5486000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4994000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5169000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4685000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4691000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4566000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4873000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7247000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6902000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6502000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9528000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9278000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10400000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10071000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9994000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9133000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11205000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7277000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8283000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8151000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7701000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9678000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9177000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9596000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10911000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5308000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6997000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7562000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8324000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5905000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15430000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17822000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18153000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15687000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15544000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14720000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17585000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17139000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15429000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15261000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15563000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15268000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17208000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43788000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14373000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14180000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12861000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12318000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12926000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13697000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13893000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13440000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11431000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27646000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29807000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30208000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29880000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29633000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30160000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33059000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31838000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29382000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31294000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28264000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28220000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30111000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56127000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29607000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28327000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27943000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28223000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23403000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25379000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26146000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26330000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22209000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23784000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24373000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24523000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24715000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26491000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>27399000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27978000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>28181000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25653000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25490000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22056000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21833000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22116000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22889000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22470000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22605000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22760000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23199000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23224000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23163000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22999000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22933000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17897000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8474000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9334000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9242000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9677000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13763000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13604000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17009000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15105000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14843000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15336000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12499000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13320000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12563000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11623000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14794000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14043000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14454000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12891000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12225000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14060000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14626000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15077000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15127000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59985000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63678000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64140000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64438000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69973000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71229000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71180000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75194000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69951000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72194000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62896000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63447000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64868000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90717000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66949000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65056000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65243000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64426000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58911000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62661000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63830000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64400000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>55292000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,64 +5144,67 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>62095000</v>
+      </c>
+      <c r="E72" s="3">
         <v>60699000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>66802000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55917000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53194000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49670000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55738000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53615000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52936000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50035000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54618000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51668000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50557000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46348000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>77739000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>77063000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>75934000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>24</v>
@@ -5048,8 +5221,11 @@
       <c r="Z72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62925000</v>
+      </c>
+      <c r="E76" s="3">
         <v>61540000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67655000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56771000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54042000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50523000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56598000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54484000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53812000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50903000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55474000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52524000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51426000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47229000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78614000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77938000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76815000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71098000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>74168000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72311000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>69919000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>67586000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>74832000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2222000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16308000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2758000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2896000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2059000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2094000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1935000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1867000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2176000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1125000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2042000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6799000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1766000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1195000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1623000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7768000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2025000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1976000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2081000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1980000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1666000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>957000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1802000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1405000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1519000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1453000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1444000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1697000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1617000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1734000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1703000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1410000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1937000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1402000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1046000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1441000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3199000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2963000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2893000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1254000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1468000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1478000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1354000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1776000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1700000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3755000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1649000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3884000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4925000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4132000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2130000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4005000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3156000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3961000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2528000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3540000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4562000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3610000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1913000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3766000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4050000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3942000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2514000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3408000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3586000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3582000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2045000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3591000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +6364,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6154,73 +6374,76 @@
         <v>-257000</v>
       </c>
       <c r="E91" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-460000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-351000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-321000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-246000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-521000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-279000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-238000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-237000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-461000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-357000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-279000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-282000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-444000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-295000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-257000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-359000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-638000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-382000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-332000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-554000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11628000</v>
+      </c>
+      <c r="E94" s="3">
         <v>9365000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4563000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>780000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-571000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-425000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>318000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-474000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1328000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-886000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4325000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-996000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-685000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-337000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,17 +6701,18 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6487,11 +6720,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6499,11 +6732,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6511,11 +6744,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6523,11 +6756,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6535,16 +6768,19 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2302000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1013000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>453000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-388000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-41000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-65000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-227000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>166000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>66000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>38000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>79000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-64000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>76000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-104000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>80000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>34000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-382000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10227000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1445000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5196000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2094000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1316000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>664000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3077000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1389000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2734000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3184000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-729000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1554000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6633000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>50000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>954000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>284000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>565000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-167000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12842000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13085000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12814000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13522000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13367000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13294000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12694000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13030000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12538000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11622000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12708000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12716000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12482000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12024000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11402000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11876000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11358000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11633000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12929000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13164000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12692000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12494000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11785000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12556000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3749000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3755000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3848000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3754000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3833000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3940000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3568000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3337000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3555000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3834000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3616000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3315000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3165000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8368000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7646000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7874000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4257000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4393000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4292000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4210000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4063000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4426000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9185000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9336000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9059000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9522000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9519000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9540000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8861000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9090000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8970000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8285000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9153000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8882000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8866000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8709000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8237000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3508000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3712000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3759000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8672000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8771000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8400000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8284000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7722000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8130000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,85 +1027,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2263000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2251000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2256000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2369000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2261000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2284000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2127000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2297000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2143000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2010000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2034000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2193000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2175000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2054000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1964000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4553000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4217000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4307000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2111000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2251000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2049000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2029000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1984000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2173000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1169,102 +1185,108 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>193000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>305000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>271000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-136000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>690000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>66000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1067000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>731000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>302000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>784000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>505000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>456000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>453000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1116000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>744000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>181000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>170000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>166000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>68000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>220000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-152000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E15" s="3">
         <v>39000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>27000</v>
       </c>
       <c r="I15" s="3">
         <v>27000</v>
@@ -1273,58 +1295,61 @@
         <v>27000</v>
       </c>
       <c r="K15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L15" s="3">
         <v>12000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>145000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>15000</v>
       </c>
       <c r="U15" s="3">
         <v>15000</v>
       </c>
       <c r="V15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W15" s="3">
         <v>140000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>13000</v>
       </c>
       <c r="AA15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10674000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10857000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9962000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10960000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10134000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9815000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10279000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10386000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10126000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9270000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9964000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10893000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10124000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9160000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10515000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9119000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3411000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10482000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11094000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10335000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10214000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9863000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11101000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2168000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2228000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2852000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2562000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3233000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3479000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2415000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2644000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2412000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2352000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2744000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1823000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2358000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2663000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2242000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1361000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2239000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8222000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2447000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2070000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2357000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2280000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1922000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1455000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,393 +1564,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14595000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>199000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>228000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>237000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>116000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>207000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>156000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>139000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>265000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>176000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>124000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>220000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>241000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>186000</v>
       </c>
       <c r="U20" s="3">
         <v>186000</v>
       </c>
       <c r="V20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="W20" s="3">
         <v>439000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>276000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>227000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>205000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-209000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4160000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4046000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4275000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18676000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4885000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5151000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4349000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4377000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4353000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4211000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4270000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3899000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4025000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3885000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3807000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3217000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3845000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9688000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3887000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3977000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4111000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3861000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3903000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2946000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E22" s="3">
         <v>202000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>206000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>202000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>201000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>202000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>201000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>220000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>239000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>203000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>216000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>205000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>226000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>248000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>229000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>237000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>224000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>208000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>197000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>192000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>180000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>168000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2042000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2669000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16951000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3230000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3506000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2450000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2559000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2410000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2288000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2621000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1759000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2407000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2634000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2140000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1333000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2251000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8171000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2409000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2301000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2436000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2315000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1947000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1078000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E24" s="3">
         <v>347000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>450000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>645000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>472000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>611000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>391000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>460000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>478000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>421000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>448000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>630000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>366000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>525000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>272000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>113000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>369000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>443000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>381000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>386000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>353000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>336000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>282000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>142000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1575000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1695000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2219000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16306000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2758000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2895000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2059000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2099000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1932000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1867000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2173000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1129000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2041000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2109000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1868000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1220000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1882000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7728000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2028000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1915000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2083000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1979000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1665000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>936000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1694000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2222000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16308000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2758000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2896000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2059000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2094000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1935000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1867000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2176000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1125000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2042000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2108000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1867000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1221000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1881000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7728000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2025000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1915000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2081000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1666000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>957000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2225,31 +2282,34 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2260,35 +2320,35 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4691000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-101000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-26000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-258000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>40000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>61000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-199000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-228000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-237000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-116000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-207000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-156000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-139000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-265000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-176000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-124000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-220000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-186000</v>
       </c>
       <c r="U32" s="3">
         <v>-186000</v>
       </c>
       <c r="V32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-439000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-276000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-227000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-205000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>209000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1694000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2222000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16308000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2758000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2896000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2059000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2094000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1935000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1867000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2176000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1125000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2042000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6799000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1766000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1195000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1623000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7768000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2025000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1976000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2081000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1666000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>957000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1694000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2222000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16308000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2758000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2896000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2059000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2094000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1935000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1867000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2176000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1125000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2042000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6799000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1766000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1195000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1623000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7768000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2025000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1976000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2081000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1666000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>957000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,144 +2989,148 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8726000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3625000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13852000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12407000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7211000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5117000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3801000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9658000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8994000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5917000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4528000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11112000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8378000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9991000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6807000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13271000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12446000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5813000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9485000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9421000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8437000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8237000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7007000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10377000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16133000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4962000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15922000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>951000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>239000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>276000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1905000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1876000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>376000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>445000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>334000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>339000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>344000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>305000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2693000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>710000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>700000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>609000</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>24</v>
@@ -3052,553 +3141,577 @@
       <c r="Y42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA42" s="3">
         <v>770000</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8680000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8910000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8678000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8283000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8632000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8654000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8481000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8456000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8299000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7952000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8795000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8555000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8070000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8252000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7845000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8975000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8766000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8989000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9116000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8802000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8482000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8380000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8234000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8202000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6779000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6880000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6997000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6666000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6885000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7111000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6997000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7131000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7136000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6904000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6398000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5982000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6123000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6094000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5728000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6956000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6952000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7097000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7227000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6867000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6954000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6901000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6583000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6255000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2594000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2747000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2440000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2574000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2687000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2643000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2523000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2668000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2733000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2932000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3521000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3765000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3639000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31763000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3668000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3685000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2833000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10286000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3054000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2609000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2820000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2712000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2697000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36954000</v>
+      </c>
+      <c r="E46" s="3">
         <v>38142000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37236000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45718000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26253000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23808000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22198000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29673000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28973000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23882000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23098000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29504000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26675000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28320000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>52448000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35563000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34113000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32065000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33051000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28208000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27466000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>26538000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>25766000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>24931000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2491000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2580000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2906000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3241000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12347000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12014000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11628000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12533000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11603000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11050000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10521000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11162000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11062000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11638000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10122000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10697000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10807000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10359000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10521000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26660000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28692000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27926000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27722000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>16500000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11731000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12206000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12861000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13106000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13157000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13344000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13204000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13939000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13337000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13595000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13560000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13746000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13560000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14052000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14136000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15696000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15745000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15957000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16677000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16464000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16263000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16206000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15772000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15641000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60556000</v>
+      </c>
+      <c r="E49" s="3">
         <v>62480000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64489000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>63777000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>63523000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64584000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64967000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66808000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66415000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>65769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66388000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55311000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>56000000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53754000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53316000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>74013000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>72989000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>74610000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>66250000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>61747000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>62551000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>63079000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62726000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62320000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,67 +3867,70 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6732000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7502000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7726000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5953000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5929000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10265000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9755000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4825000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9350000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9467000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9530000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8647000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8674000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8530000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7924000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9594000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9340000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9067000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>24</v>
@@ -3822,14 +3941,17 @@
       <c r="Y52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA52" s="3">
         <v>10732000</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AB52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118464000</v>
+      </c>
+      <c r="E54" s="3">
         <v>122910000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125218000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131795000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121209000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>124015000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121752000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127778000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>129678000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123763000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123097000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118370000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115971000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116294000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>137946000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>145563000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>142994000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>142058000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>135524000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>133079000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>134972000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>133749000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>131986000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>130124000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4693000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4969000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5083000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5553000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4665000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4811000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5040000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5403000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4705000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4820000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4828000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5424000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4669000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4752000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4638000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5556000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4970000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5486000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4994000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5169000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4685000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4691000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4566000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4873000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7204000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7247000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6902000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6502000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9528000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9278000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10400000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10071000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9994000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9133000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11205000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7277000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8283000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8151000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7701000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9678000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9177000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9596000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10911000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5308000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6997000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7562000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8324000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5905000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16263000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15430000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17822000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18153000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15687000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15544000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14720000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17585000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17139000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15429000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15261000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15563000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15268000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17208000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43788000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14373000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14180000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12861000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12318000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12926000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13697000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13893000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13440000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11431000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28160000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27646000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29807000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30208000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29880000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29633000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30160000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33059000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31838000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29382000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31294000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28264000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28220000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30111000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56127000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29607000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28327000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27943000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28223000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23403000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25379000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26146000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26330000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22209000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21235000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23784000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24373000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24523000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24715000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26491000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>27399000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27978000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28181000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25653000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25490000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22056000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21833000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22116000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22889000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22470000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22605000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22760000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23199000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23224000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23163000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22999000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22933000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>17897000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8171000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8474000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9334000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9242000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9677000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13763000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13604000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17009000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15105000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14843000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15336000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12499000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13320000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12563000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11623000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14794000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14043000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14454000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12891000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12225000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14060000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14626000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15077000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15127000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57644000</v>
+      </c>
+      <c r="E66" s="3">
         <v>59985000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63678000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64140000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64438000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69973000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71229000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71180000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75194000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69951000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72194000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62896000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63447000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64868000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90717000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66949000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65056000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65243000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64426000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58911000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62661000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>63830000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64400000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>55292000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,67 +5317,70 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="E72" s="3">
         <v>62095000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60699000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>66802000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55917000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53194000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49670000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55738000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53615000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52936000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50035000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54618000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51668000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50557000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46348000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>77739000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>77063000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>75934000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>24</v>
@@ -5224,8 +5397,11 @@
       <c r="AA72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60820000</v>
+      </c>
+      <c r="E76" s="3">
         <v>62925000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61540000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67655000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56771000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54042000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50523000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56598000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54484000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53812000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50903000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55474000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52524000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51426000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47229000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78614000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77938000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>76815000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71098000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74168000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>72311000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>69919000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>67586000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>74832000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1694000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2222000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16308000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2758000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2896000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2059000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2094000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1935000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1867000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2176000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1125000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2042000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6799000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1766000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1195000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1623000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7768000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2025000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1976000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2081000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1666000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>957000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2026000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1802000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1405000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1519000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1453000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1444000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1697000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1617000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1734000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1703000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1410000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1937000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1402000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1441000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3199000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2963000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2893000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1254000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1468000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1478000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1354000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1776000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1700000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4721000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3755000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1649000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3884000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4925000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4132000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2130000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4005000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3156000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3961000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2528000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3540000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4562000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1913000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3766000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4050000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3942000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2514000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3408000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3586000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3582000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2045000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-257000</v>
+        <v>-287000</v>
       </c>
       <c r="E91" s="3">
         <v>-257000</v>
       </c>
       <c r="F91" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-460000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-351000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-321000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-246000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-521000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-279000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-238000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-237000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-461000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-357000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-279000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-282000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-444000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-295000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-257000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-359000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-638000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-382000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-332000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-554000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11628000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9365000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4563000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>97000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>780000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-571000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-425000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>318000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-474000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1328000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-886000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4325000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-996000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-685000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-337000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +6934,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6711,11 +6944,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6723,11 +6956,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6735,11 +6968,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6747,11 +6980,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6759,11 +6992,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6771,16 +7004,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4738000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2302000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1013000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>453000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-388000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-52000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-41000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-65000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-227000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>166000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>66000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>38000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>79000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-64000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>76000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-104000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>80000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>34000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>51000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-382000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5101000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10227000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1445000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5196000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2094000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1316000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>664000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3077000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1389000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2734000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3184000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-729000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1554000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6633000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>50000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>954000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>284000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>565000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-167000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13001000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12842000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13085000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12814000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13522000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13367000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13294000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12694000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13030000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12538000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11622000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12708000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12716000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12482000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12024000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11402000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11876000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11358000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11633000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12929000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13164000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12692000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12494000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11785000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12556000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3837000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3657000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3749000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3755000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3848000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3754000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3833000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3940000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3568000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3337000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3555000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3834000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3616000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3315000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3165000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8368000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7646000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7874000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4257000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4393000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4292000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4210000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4063000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4426000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9164000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9185000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9336000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9059000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9522000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9519000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9540000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8861000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9090000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8970000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8285000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9153000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8882000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8866000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8709000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8237000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3508000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3712000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3759000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8672000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8771000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8400000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8284000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7722000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8130000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,88 +1040,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2318000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2263000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2251000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2256000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2369000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2261000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2284000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2127000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2297000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2143000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2010000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2034000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2193000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2175000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2054000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1964000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4553000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4217000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4307000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2111000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2251000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2049000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2029000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1984000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2173000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,88 +1204,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1059000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000000</v>
       </c>
-      <c r="F14" s="3">
-        <v>193000</v>
-      </c>
       <c r="G14" s="3">
+        <v>295000</v>
+      </c>
+      <c r="H14" s="3">
         <v>305000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>271000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-136000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>690000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>66000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1067000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>731000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>302000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>784000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>505000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>456000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>453000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1116000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>744000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>181000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>170000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>166000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>68000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>220000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-152000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,19 +1299,19 @@
         <v>42000</v>
       </c>
       <c r="E15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F15" s="3">
         <v>39000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>27000</v>
       </c>
       <c r="J15" s="3">
         <v>27000</v>
@@ -1298,58 +1320,61 @@
         <v>27000</v>
       </c>
       <c r="L15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="M15" s="3">
         <v>12000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>145000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>15000</v>
       </c>
       <c r="V15" s="3">
         <v>15000</v>
       </c>
       <c r="W15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X15" s="3">
         <v>140000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>16000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>24000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>13000</v>
       </c>
       <c r="AB15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11052000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10674000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10857000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9962000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10960000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10134000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9815000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10279000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10386000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10126000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9270000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9964000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10893000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10124000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9361000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9160000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10515000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9119000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3411000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10482000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11094000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10335000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10214000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9863000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11101000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1949000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2168000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2228000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2852000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2562000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3233000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3479000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2415000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2644000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2412000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2352000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2744000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1823000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2358000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2663000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2242000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1361000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2239000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8222000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2447000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2070000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2357000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2280000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1922000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1455000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1565,408 +1597,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14595000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>199000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>228000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>237000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>207000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>156000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>139000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>265000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>176000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>124000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>220000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>241000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>186000</v>
       </c>
       <c r="V20" s="3">
         <v>186000</v>
       </c>
       <c r="W20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="X20" s="3">
         <v>439000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>276000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>227000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>205000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-209000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3908000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4160000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4046000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4275000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18676000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4885000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5151000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4349000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4377000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4353000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4211000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4270000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3899000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4025000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3885000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3807000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3217000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3845000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9688000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3887000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3977000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4111000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3861000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3903000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2946000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E22" s="3">
         <v>215000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>202000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>206000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>202000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>201000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>202000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>220000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>239000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>203000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>216000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>205000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>226000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>248000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>229000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>237000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>224000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>208000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>197000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>192000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>180000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>168000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1919000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2042000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2669000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16951000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3230000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3506000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2450000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2559000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2410000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2288000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2621000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1759000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2407000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2634000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2140000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1333000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2251000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8171000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2409000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2301000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2436000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2315000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1947000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1078000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E24" s="3">
         <v>344000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>347000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>450000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>645000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>472000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>611000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>391000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>460000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>478000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>421000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>448000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>630000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>366000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>525000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>272000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>113000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>369000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>443000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>381000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>386000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>353000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>336000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>282000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>142000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1575000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1695000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2219000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16306000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2758000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2895000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2059000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2099000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1932000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1867000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2173000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1129000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2041000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2109000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1868000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1220000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1882000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7728000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2028000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1915000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2083000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1979000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1665000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>936000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1573000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1694000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2222000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16308000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2758000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2896000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2059000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2094000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1935000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1867000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2176000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1125000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2108000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1867000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1221000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1881000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7728000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2025000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1915000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2081000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1666000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>957000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2311,8 +2371,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2323,35 +2383,35 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>4691000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-101000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-26000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-258000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>40000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>61000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-199000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-228000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-237000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-207000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-156000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-139000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-265000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-176000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-124000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-220000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-186000</v>
       </c>
       <c r="V32" s="3">
         <v>-186000</v>
       </c>
       <c r="W32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-439000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-276000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-227000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-205000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>209000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1573000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1694000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2222000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16308000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2758000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2896000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2059000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2094000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1935000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1867000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2176000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1125000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6799000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1766000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1195000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1623000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7768000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2025000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1976000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2081000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1666000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>957000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1573000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1694000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2222000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16308000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2758000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2896000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2059000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2094000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1935000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1867000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2176000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1125000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6799000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1766000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1195000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1623000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7768000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2025000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1976000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2081000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1666000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>957000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,150 +3075,154 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7517000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8726000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3625000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13852000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12407000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7211000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5117000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3801000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9658000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8994000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5917000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4528000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11112000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8378000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9991000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6807000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13271000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14000000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12446000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5813000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9485000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9421000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8437000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8237000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7007000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11413000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10377000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16133000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4962000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15922000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>951000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>239000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>276000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1905000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1876000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>376000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>445000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>334000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>339000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>344000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>305000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2693000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>710000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>609000</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>24</v>
@@ -3144,574 +3233,598 @@
       <c r="Z42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB42" s="3">
         <v>770000</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AC42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8334000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8680000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8910000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8678000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8283000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8632000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8654000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8481000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8456000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8299000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7952000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8795000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8555000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8070000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8252000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7845000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8975000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8766000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8989000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9116000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8802000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8482000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8380000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8234000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8202000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7175000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6779000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6880000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6997000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6666000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6885000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7111000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6997000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7131000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7136000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6904000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6398000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5982000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6123000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6094000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5728000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6956000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6952000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7097000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7227000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6867000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6954000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6901000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6583000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6255000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2471000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2392000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2594000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2747000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2440000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2574000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2687000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2643000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2523000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2668000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2733000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2932000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3521000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3765000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3639000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31763000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3668000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3685000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2833000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10286000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3054000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2609000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2820000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2712000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2697000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36910000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36954000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38142000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37236000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45718000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26253000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23808000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22198000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29673000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28973000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23882000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23098000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29504000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26675000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28320000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52448000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35563000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34113000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32065000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33051000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28208000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27466000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>26538000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>25766000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>24931000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2491000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2580000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2906000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3241000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12347000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12014000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11628000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12533000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11603000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11050000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10521000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11162000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11062000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11638000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10122000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10697000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10807000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10359000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10521000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26660000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28692000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27926000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27722000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>16500000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12195000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11731000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12206000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12861000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13106000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13157000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13344000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13204000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13939000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13337000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13595000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13560000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13746000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13560000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14052000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14136000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15696000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15745000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15957000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16677000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16464000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16263000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16206000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15772000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15641000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60945000</v>
+      </c>
+      <c r="E49" s="3">
         <v>60556000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>62480000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64489000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>63777000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>63523000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64584000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64967000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66808000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66415000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>65769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66388000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>55311000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56000000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53754000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53316000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>74013000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>72989000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>74610000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>66250000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>61747000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62551000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>63079000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62726000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>62320000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,70 +3986,73 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4849000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6732000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7502000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7726000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5953000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5929000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10265000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9755000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4825000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9350000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9467000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9530000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8647000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8674000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8530000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7924000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9594000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9340000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9067000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>24</v>
@@ -3944,14 +4063,17 @@
       <c r="Z52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB52" s="3">
         <v>10732000</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AC52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117453000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118464000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122910000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125218000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131795000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121209000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>124015000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121752000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127778000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>129678000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123763000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123097000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118370000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115971000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116294000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>137946000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>145563000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>142994000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>142058000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>135524000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>133079000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>134972000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>133749000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>131986000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>130124000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5146000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4693000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4969000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5083000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5553000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4665000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4811000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5040000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5403000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4705000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4820000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4828000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5424000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4669000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4752000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4638000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5556000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4970000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5486000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4994000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5169000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4685000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4691000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4566000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4873000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6127000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7204000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7247000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6902000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6502000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9528000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9278000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10400000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10071000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9994000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9133000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11205000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7277000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8283000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8151000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7701000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9678000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9177000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9596000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10911000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5308000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6997000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7562000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8324000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5905000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17383000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16263000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15430000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17822000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18153000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15687000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15544000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14720000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17585000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17139000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15429000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15261000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15563000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15268000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17208000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43788000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14373000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14180000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12861000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12318000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12926000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13697000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13893000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13440000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11431000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28656000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28160000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27646000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29807000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30208000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29880000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29633000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30160000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33059000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31838000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29382000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31294000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28264000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28220000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30111000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56127000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29607000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28327000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27943000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28223000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23403000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>25379000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26146000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26330000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22209000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21782000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21235000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23784000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24373000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24523000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24715000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26491000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27399000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27978000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28181000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25653000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25490000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22056000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21833000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22116000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22889000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22470000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22605000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22760000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23199000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23224000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23163000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22999000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>22933000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>17897000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7592000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8171000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8474000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9334000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9242000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9677000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13763000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13604000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17009000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15105000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14843000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15336000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12499000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13320000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12563000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11623000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14794000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14043000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14454000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12891000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12225000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14060000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>14626000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15077000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15127000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58111000</v>
+      </c>
+      <c r="E66" s="3">
         <v>57644000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59985000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63678000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64140000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64438000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69973000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71229000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71180000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75194000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69951000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72194000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62896000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63447000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64868000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90717000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66949000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65056000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65243000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64426000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58911000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62661000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>63830000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64400000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>55292000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,70 +5490,73 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58544000</v>
+      </c>
+      <c r="E72" s="3">
         <v>60000000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62095000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60699000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66802000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55917000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53194000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49670000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55738000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53615000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52936000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50035000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54618000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51668000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50557000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46348000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>77739000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>77063000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>75934000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>24</v>
@@ -5400,8 +5573,11 @@
       <c r="AB72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59342000</v>
+      </c>
+      <c r="E76" s="3">
         <v>60820000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62925000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61540000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67655000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56771000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54042000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50523000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56598000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54484000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53812000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50903000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55474000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52524000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51426000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47229000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78614000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77938000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>76815000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71098000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>74168000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>72311000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>69919000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>67586000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>74832000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1573000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1694000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2222000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16308000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2758000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2896000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2059000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2094000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1935000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1867000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2176000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1125000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6799000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1766000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1195000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1623000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7768000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2025000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1976000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2081000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1666000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>957000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1948000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2026000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1802000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1405000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1519000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1453000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1444000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1697000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1617000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1734000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1703000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1410000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1937000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1402000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1046000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1441000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3199000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2963000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2893000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1254000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1468000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1478000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1354000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1776000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1700000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4111000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4721000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3755000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1649000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3884000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4925000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4132000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2130000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4005000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3156000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3961000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2528000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3540000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4562000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3610000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1913000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3766000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4050000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3942000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2514000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3408000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3586000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3582000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2045000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-287000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-257000</v>
       </c>
       <c r="F91" s="3">
         <v>-257000</v>
       </c>
       <c r="G91" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-460000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-351000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-321000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-246000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-521000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-279000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-238000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-237000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-461000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-357000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-279000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-282000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-444000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-295000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-257000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-359000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-638000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-382000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-332000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-554000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1467000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5198000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11628000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9365000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4563000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>780000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-571000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-425000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>318000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-474000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1328000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-886000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4325000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-996000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-685000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-337000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,8 +7167,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6947,11 +7180,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6959,11 +7192,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6971,11 +7204,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6983,11 +7216,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6995,11 +7228,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7007,16 +7240,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3994000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4738000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2302000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1013000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>453000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-388000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-80000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-52000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-65000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-227000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>166000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>66000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>38000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>79000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>76000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-104000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>80000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>34000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>51000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-382000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1209000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5101000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10227000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1445000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5196000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2094000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1316000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>664000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3077000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1389000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2734000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3184000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-729000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1554000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6633000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>50000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>954000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>284000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>565000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-167000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13208000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13001000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12842000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13085000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12814000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13522000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13367000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13294000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12694000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13030000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12538000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11622000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12708000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12716000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12482000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12024000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11402000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11876000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11358000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11633000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12929000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13164000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12692000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12494000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11785000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12556000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3829000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3837000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3657000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3749000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3755000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3848000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3754000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3833000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3940000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3568000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3337000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3555000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3834000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3616000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3315000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3165000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8368000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7646000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7874000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4257000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4393000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4292000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4210000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4063000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4426000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9379000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9164000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9185000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9336000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9059000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9522000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9519000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9540000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8861000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9090000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8970000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8285000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9153000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8882000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8866000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8709000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8237000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3508000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3712000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3759000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8672000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8771000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8400000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8284000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7722000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8130000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,91 +1053,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2272000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2318000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2263000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2251000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2256000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2369000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2261000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2284000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2127000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2297000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2143000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2010000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2034000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2193000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2175000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2054000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1964000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4553000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4217000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4307000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2111000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2251000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2049000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2029000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1984000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2173000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,114 +1223,120 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1172000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1059000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>295000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>305000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>271000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-136000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>690000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>66000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1067000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>731000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>302000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>784000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>505000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>456000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>453000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1116000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>744000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>181000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>170000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>166000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>68000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>220000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-152000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>42000</v>
+        <v>153000</v>
       </c>
       <c r="E15" s="3">
         <v>42000</v>
       </c>
       <c r="F15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="G15" s="3">
         <v>39000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>27000</v>
       </c>
       <c r="K15" s="3">
         <v>27000</v>
@@ -1323,58 +1345,61 @@
         <v>27000</v>
       </c>
       <c r="M15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="N15" s="3">
         <v>12000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>145000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>15000</v>
       </c>
       <c r="W15" s="3">
         <v>15000</v>
       </c>
       <c r="X15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>140000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>16000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>24000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>13000</v>
       </c>
       <c r="AC15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10352000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11052000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10674000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10857000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9962000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10960000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10134000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9815000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10279000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10386000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10126000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9270000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9964000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10893000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10124000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9160000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10515000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9119000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3411000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10482000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11094000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10335000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10214000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9863000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11101000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1949000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2168000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2228000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2852000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2562000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3233000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3479000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2415000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2644000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2412000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2352000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2744000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1823000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2358000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2663000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2242000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1361000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2239000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8222000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2447000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2070000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2357000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2280000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1922000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1455000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1598,423 +1630,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14595000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>199000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>228000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>237000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>116000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>207000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>156000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>139000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>265000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>176000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>124000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>220000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>241000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>186000</v>
       </c>
       <c r="W20" s="3">
         <v>186000</v>
       </c>
       <c r="X20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>439000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>276000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>227000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>205000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-209000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4947000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3908000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4160000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4046000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4275000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18676000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4885000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5151000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4349000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4377000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4353000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4211000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4270000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3899000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4025000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3885000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3807000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3217000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3845000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9688000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3887000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3977000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4111000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3861000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3903000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2946000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E22" s="3">
         <v>219000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>215000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>202000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>206000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>202000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>201000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>202000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>201000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>220000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>239000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>203000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>216000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>205000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>226000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>248000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>229000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>237000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>224000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>208000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>197000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>192000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>180000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>168000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2740000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1741000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1919000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2042000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2669000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16951000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3230000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3506000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2450000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2559000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2410000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2288000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2621000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1759000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2407000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2634000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2140000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1333000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2251000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8171000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2409000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2301000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2436000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2315000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1947000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1078000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E24" s="3">
         <v>275000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>344000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>347000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>450000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>645000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>472000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>611000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>391000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>460000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>478000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>421000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>448000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>630000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>366000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>525000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>272000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>113000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>369000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>443000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>381000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>386000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>353000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>336000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>282000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>142000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2294000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1466000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1575000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1695000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2219000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16306000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2758000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2895000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2059000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2099000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1932000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1867000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2173000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1129000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2041000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2109000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1868000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1220000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1882000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7728000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2028000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1915000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2083000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1979000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1665000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>936000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1466000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1573000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1694000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2222000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16308000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2758000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2896000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2059000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2094000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1935000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1867000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2176000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2042000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2108000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1867000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1221000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1881000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7728000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2025000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1915000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2081000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1666000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>957000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2374,8 +2434,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2386,35 +2446,35 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>4691000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-101000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-26000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-258000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>40000</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>61000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-199000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-228000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-237000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-116000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-207000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-156000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-265000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-176000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-124000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-220000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-186000</v>
       </c>
       <c r="W32" s="3">
         <v>-186000</v>
       </c>
       <c r="X32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-439000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-276000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-227000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-205000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>209000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1466000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1573000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1694000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2222000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16308000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2758000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2896000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2059000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2094000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1935000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1867000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2176000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2042000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6799000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1766000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1195000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1623000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7768000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2025000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1976000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2081000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1666000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>957000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1466000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1573000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1694000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2222000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16308000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2758000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2896000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2059000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2094000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1935000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1867000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2176000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2042000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6799000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1766000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1195000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1623000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7768000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2025000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1976000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2081000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1666000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>957000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,156 +3161,160 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7517000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8726000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3625000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13852000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12407000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7211000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5117000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3801000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9658000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8994000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5917000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4528000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11112000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8378000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9991000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6807000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13271000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14000000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12446000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5813000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9485000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9421000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8437000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8237000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7007000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E42" s="3">
         <v>11413000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10377000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16133000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4962000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15922000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>951000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>239000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>276000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1905000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1876000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>376000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>445000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>334000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>339000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>344000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>305000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2693000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>710000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>609000</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>24</v>
@@ -3236,595 +3325,619 @@
       <c r="AA42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC42" s="3">
         <v>770000</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9183000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8334000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8680000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8910000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8678000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8283000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8632000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8654000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8481000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8456000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8299000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7952000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8795000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8555000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8070000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8252000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7845000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8975000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8766000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8989000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9116000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8802000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8482000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8380000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8234000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8202000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7886000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7175000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6779000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6880000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6997000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6666000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6885000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7111000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6997000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7131000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7136000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6904000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6398000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5982000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6123000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6094000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5728000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6956000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6952000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7097000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7227000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6867000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6954000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6901000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6583000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6255000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2785000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2471000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2392000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2594000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2747000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2440000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2574000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2687000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2643000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2523000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2668000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2733000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2932000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3521000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3765000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3639000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31763000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3668000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3685000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2833000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10286000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3054000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2609000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2820000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2712000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2697000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32114000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36910000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36954000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38142000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37236000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45718000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26253000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23808000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22198000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29673000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28973000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23882000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23098000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29504000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26675000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28320000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52448000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35563000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34113000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32065000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33051000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>28208000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27466000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>26538000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>25766000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>24931000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2554000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2491000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2580000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2906000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3241000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12347000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12014000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11628000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12533000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11603000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11050000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10521000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11162000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11062000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11638000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10122000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10697000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10807000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10359000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10521000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>26660000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28692000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27926000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27722000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>16500000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12348000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12195000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11731000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12206000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12861000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13106000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13157000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13344000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13204000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13939000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13337000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13595000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13560000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13746000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13560000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14052000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14136000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15696000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15745000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15957000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16677000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16464000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16263000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16206000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15772000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15641000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59932000</v>
+      </c>
+      <c r="E49" s="3">
         <v>60945000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>60556000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>62480000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64489000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>63777000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>63523000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64584000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64967000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66808000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66415000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>65769000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66388000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>55311000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>56000000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53754000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53316000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>74013000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>72989000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>74610000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>66250000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>61747000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62551000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>63079000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>62726000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>62320000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,73 +4105,76 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5292000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4849000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6732000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7502000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7726000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5953000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5929000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10265000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9755000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4825000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9350000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9467000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9530000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8647000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8674000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8530000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7924000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9594000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9340000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9067000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>24</v>
@@ -4066,14 +4185,17 @@
       <c r="AA52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC52" s="3">
         <v>10732000</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AD52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112241000</v>
+      </c>
+      <c r="E54" s="3">
         <v>117453000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118464000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122910000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125218000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131795000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121209000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>124015000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121752000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127778000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>129678000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123763000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123097000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118370000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115971000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116294000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>137946000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>145563000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>142994000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>142058000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>135524000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>133079000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>134972000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>133749000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>131986000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>130124000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4429,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5146000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4693000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4969000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5083000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5553000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4665000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4811000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5040000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5403000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4705000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4820000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4828000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5424000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4669000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4752000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4638000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5556000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4970000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5486000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4994000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5169000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4685000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4691000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4566000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4873000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7166000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6127000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7204000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7247000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6902000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6502000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9528000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9278000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10400000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10071000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9994000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9133000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11205000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7277000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8283000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8151000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7701000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9678000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9177000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9596000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10911000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5308000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6997000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7562000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8324000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5905000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17957000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17383000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16263000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15430000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17822000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18153000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15687000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15544000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14720000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17585000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17139000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15429000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15261000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15563000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15268000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17208000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43788000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14373000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14180000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12861000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12318000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12926000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13697000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13893000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13440000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11431000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30549000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28656000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28160000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27646000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29807000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30208000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29880000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29633000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30160000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33059000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31838000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29382000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31294000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28264000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28220000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30111000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56127000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29607000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28327000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27943000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28223000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23403000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>25379000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26146000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26330000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22209000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21985000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21782000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21235000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23784000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24373000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24523000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24715000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26491000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27399000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27978000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28181000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25653000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25490000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22056000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21833000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22116000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22889000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22470000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22605000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22760000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23199000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23224000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23163000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>22999000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>22933000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>17897000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7565000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7592000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8171000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8474000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9334000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9242000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9677000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13763000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13604000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17009000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15105000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14843000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15336000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12499000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13320000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12563000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11623000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14794000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14043000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14454000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12891000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12225000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>14060000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14626000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15077000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>15127000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60182000</v>
+      </c>
+      <c r="E66" s="3">
         <v>58111000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57644000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59985000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63678000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64140000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64438000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69973000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71229000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71180000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75194000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69951000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72194000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62896000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63447000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64868000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90717000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66949000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65056000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65243000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64426000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>58911000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62661000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>63830000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>64400000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>55292000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,73 +5663,76 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51253000</v>
+      </c>
+      <c r="E72" s="3">
         <v>58544000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60000000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>62095000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60699000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66802000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55917000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53194000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49670000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55738000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53615000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52936000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50035000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54618000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51668000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50557000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46348000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>77739000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>77063000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>75934000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>24</v>
@@ -5576,8 +5749,11 @@
       <c r="AC72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52059000</v>
+      </c>
+      <c r="E76" s="3">
         <v>59342000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60820000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62925000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61540000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>67655000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56771000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54042000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50523000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56598000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54484000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53812000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50903000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55474000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52524000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51426000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47229000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>78614000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77938000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>76815000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>71098000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>74168000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>72311000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>69919000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>67586000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>74832000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1466000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1573000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1694000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2222000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16308000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2758000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2896000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2059000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2094000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1935000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1867000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2176000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2042000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6799000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1766000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1195000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1623000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7768000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2025000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1976000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2081000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1666000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>957000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1948000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2026000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1802000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1405000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1519000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1453000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1444000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1697000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1617000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1734000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1703000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1410000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1937000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1402000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1046000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1441000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3199000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2963000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2893000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1254000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1468000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1478000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1354000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1776000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1700000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2957000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4111000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4721000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3755000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1649000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3884000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4925000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4132000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2130000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4005000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3156000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3961000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2528000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3540000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4562000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3610000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1913000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3766000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4050000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3942000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2514000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3408000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3586000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3582000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2045000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-397000</v>
+        <v>-470000</v>
       </c>
       <c r="E91" s="3">
-        <v>-287000</v>
+        <v>-647000</v>
       </c>
       <c r="F91" s="3">
+        <v>-582000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-583000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-859000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-977000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-539000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-521000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-295000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-257000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-257000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-460000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-351000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-321000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-246000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-521000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-279000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-238000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-237000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-461000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-357000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-279000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-282000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-444000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-295000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-257000</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-359000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-638000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-382000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-332000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-554000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10621000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1467000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5198000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11628000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9365000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4563000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>97000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>780000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-571000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-425000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>318000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-474000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1328000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-886000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4325000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-996000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-685000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-337000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,13 +7400,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7255000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7183,11 +7416,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -7195,11 +7428,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7207,11 +7440,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7219,11 +7452,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7231,11 +7464,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7243,16 +7476,19 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9202000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3994000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4738000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2302000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1013000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>453000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-388000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E101" s="3">
         <v>141000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-80000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-52000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-65000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-227000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>166000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>66000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>38000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>79000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-64000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>76000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-104000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>80000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>34000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>51000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-382000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4483000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1209000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5101000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10227000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1445000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5196000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2094000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1316000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>664000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3077000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1389000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2734000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3184000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-729000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1554000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6633000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>50000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>954000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>284000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>565000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-167000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13936000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13208000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13001000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12842000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13085000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12814000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13522000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13367000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13294000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12694000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13030000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12538000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11622000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12708000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12716000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12482000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12024000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11402000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11876000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11358000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11633000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12929000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13164000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12692000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12494000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11785000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12556000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4006000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3829000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3837000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3657000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3749000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3755000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3848000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3754000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3833000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3940000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3568000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3337000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3555000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3834000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3616000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3315000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3165000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8368000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7646000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7874000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4257000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4393000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4292000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4210000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4063000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4426000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9930000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9379000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9164000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9185000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9336000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9059000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9522000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9519000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9540000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8861000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9090000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8970000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8285000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9153000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8882000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8866000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8709000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8237000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3508000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3712000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3759000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8672000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8771000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8400000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8284000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7722000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8130000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,94 +1066,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2272000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2318000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2263000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2251000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2256000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2369000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2261000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2284000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2127000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2297000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2143000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2010000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2034000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2193000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2175000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2054000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1964000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4553000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4217000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4307000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2111000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2251000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2049000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2029000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1984000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2173000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,120 +1242,126 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E14" s="3">
         <v>298000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1172000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1059000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>295000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>305000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>271000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-136000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>690000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>66000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1067000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>731000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>302000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>784000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>505000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>456000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>453000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1116000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>744000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>181000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>170000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>166000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>68000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>220000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-152000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="3">
         <v>153000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>42000</v>
       </c>
       <c r="F15" s="3">
         <v>42000</v>
       </c>
       <c r="G15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H15" s="3">
         <v>39000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>27000</v>
       </c>
       <c r="L15" s="3">
         <v>27000</v>
@@ -1348,58 +1370,61 @@
         <v>27000</v>
       </c>
       <c r="N15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="O15" s="3">
         <v>12000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>145000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>15000</v>
       </c>
       <c r="X15" s="3">
         <v>15000</v>
       </c>
       <c r="Y15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>140000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>16000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>24000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>13000</v>
       </c>
       <c r="AD15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11016000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10352000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11052000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10674000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10857000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9962000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10960000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10134000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9815000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10279000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10386000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10126000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9270000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9964000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10893000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10124000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9160000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10515000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9119000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3411000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10482000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11094000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10335000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10214000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9863000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11101000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2856000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1949000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2168000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2228000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2852000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2562000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3233000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3479000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2415000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2644000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2412000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2352000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2744000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1823000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2358000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2663000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2242000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1361000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2239000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8222000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2447000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2070000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2357000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2280000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1922000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1455000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1631,438 +1663,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>95000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14595000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>199000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>228000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>237000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>207000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>156000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>139000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>265000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>176000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>124000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>220000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>241000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>186000</v>
       </c>
       <c r="X20" s="3">
         <v>186000</v>
       </c>
       <c r="Y20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>439000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>276000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>227000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>205000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-209000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4818000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4947000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3908000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4160000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4046000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4275000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18676000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4885000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5151000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4349000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4377000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4353000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4211000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4270000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3899000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4025000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3885000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3807000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3217000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3845000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9688000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3887000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3977000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4111000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3861000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3903000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2946000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E22" s="3">
         <v>211000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>219000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>215000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>202000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>201000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>206000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>202000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>202000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>201000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>220000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>239000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>203000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>216000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>205000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>226000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>248000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>229000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>237000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>224000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>208000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>197000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>192000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>180000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>168000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2769000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2740000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1741000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1919000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2042000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2669000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16951000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3230000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3506000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2450000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2559000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2410000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2288000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2621000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1759000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2407000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2634000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2140000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1333000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2251000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8171000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2409000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2301000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2436000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2315000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1947000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1078000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E24" s="3">
         <v>446000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>275000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>344000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>347000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>450000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>645000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>472000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>611000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>391000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>460000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>478000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>421000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>448000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>630000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>366000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>525000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>272000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>113000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>369000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>443000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>381000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>386000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>353000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>336000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>282000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>142000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2294000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1466000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1575000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1695000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2219000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16306000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2758000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2895000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2059000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2099000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1932000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1867000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1129000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2041000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2109000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1868000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1220000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1882000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7728000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2028000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1915000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2083000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1979000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1665000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>936000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2293000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1466000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1573000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1694000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2222000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16308000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2758000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2896000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2059000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2094000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1935000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1867000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1125000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2042000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2108000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1867000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1221000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1881000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7728000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1915000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2081000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1666000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>957000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2437,8 +2497,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2449,35 +2509,35 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>4691000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-101000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-26000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-258000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>40000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>61000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-95000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-199000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-228000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-237000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-207000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-156000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-139000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-265000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-176000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-124000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-220000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-186000</v>
       </c>
       <c r="X32" s="3">
         <v>-186000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-439000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-276000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-227000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-205000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>209000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2293000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1466000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1573000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1694000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2222000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16308000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2758000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2896000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2059000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2094000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1935000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1867000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1125000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2042000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6799000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1766000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1195000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1623000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7768000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1976000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2081000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1666000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>957000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2293000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1466000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1573000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1694000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2222000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16308000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2758000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2896000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2059000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2094000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1935000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1867000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1125000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2042000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6799000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1766000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1195000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1623000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7768000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1976000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2081000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1666000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>957000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,162 +3247,166 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10885000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7517000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8726000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3625000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13852000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12407000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7211000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5117000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3801000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9658000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8994000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5917000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4528000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11112000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8378000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9991000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6807000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13271000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14000000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12446000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5813000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9485000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9421000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8437000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8237000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7007000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E42" s="3">
         <v>260000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11413000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10377000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16133000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4962000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15922000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>951000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>239000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>276000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1905000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1876000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>376000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>445000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>334000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>339000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>344000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>305000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2693000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>710000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>700000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>609000</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>24</v>
@@ -3328,616 +3417,640 @@
       <c r="AB42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD42" s="3">
         <v>770000</v>
       </c>
-      <c r="AD42" s="3" t="s">
+      <c r="AE42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9543000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9183000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8334000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8680000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8910000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8678000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8283000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8632000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8654000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8481000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8456000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8299000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7952000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8795000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8555000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8070000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8252000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7845000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8975000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8766000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8989000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9116000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8802000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8482000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8380000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8234000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8202000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8228000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7886000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7175000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6779000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6880000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6997000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6666000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6885000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7111000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6997000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7131000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7136000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6904000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6398000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5982000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6123000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6094000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5728000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6956000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6952000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7097000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7227000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6867000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6954000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6901000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6583000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6255000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4548000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2785000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2471000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2392000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2594000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2747000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2440000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2574000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2687000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2643000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2523000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2668000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2733000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2932000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3521000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3765000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3639000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31763000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3668000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3685000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2833000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10286000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3054000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2609000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2820000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2712000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2697000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33493000</v>
+      </c>
+      <c r="E46" s="3">
         <v>32114000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36910000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36954000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38142000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37236000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45718000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26253000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23808000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22198000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29673000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28973000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23882000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23098000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29504000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26675000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28320000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>52448000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35563000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34113000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>32065000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>33051000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>28208000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27466000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26538000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>25766000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>24931000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2555000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2554000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2491000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2580000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2906000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3241000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12347000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12014000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11628000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12533000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11603000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11050000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10521000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11162000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11062000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11638000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10122000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10697000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10807000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10359000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10521000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>26660000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28692000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27926000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27722000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>16500000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12277000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12348000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12195000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11731000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12206000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12861000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13106000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13157000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13344000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13204000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13939000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13337000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13595000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13560000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13746000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13560000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14052000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14136000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15696000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15745000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15957000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16677000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16464000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16263000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16206000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15772000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15641000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57525000</v>
+      </c>
+      <c r="E49" s="3">
         <v>59932000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>60945000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60556000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>62480000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64489000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>63777000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>63523000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64584000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64967000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66808000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66415000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>65769000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66388000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>55311000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>56000000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53754000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>53316000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>74013000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>72989000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>74610000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>66250000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>61747000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62551000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>63079000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>62726000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>62320000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,76 +4224,79 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5251000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5292000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4849000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6732000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7502000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7726000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5953000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5929000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10265000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9755000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4825000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9350000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9467000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9530000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8647000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8674000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8530000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7924000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9594000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9340000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9067000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>24</v>
@@ -4188,14 +4307,17 @@
       <c r="AB52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD52" s="3">
         <v>10732000</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AE52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110979000</v>
+      </c>
+      <c r="E54" s="3">
         <v>112241000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117453000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118464000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122910000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125218000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131795000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121209000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124015000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121752000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127778000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129678000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123763000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123097000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118370000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>115971000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>116294000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>137946000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>145563000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>142994000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>142058000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>135524000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>133079000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>134972000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>133749000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>131986000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>130124000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5350000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5146000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4693000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4969000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5083000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5553000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4665000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4811000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5040000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5403000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4705000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4820000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4828000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5424000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4669000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4752000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4638000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5556000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4970000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5486000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4994000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5169000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4685000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4691000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4566000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4873000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8496000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7166000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6127000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7204000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7247000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6902000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6502000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9528000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9278000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10400000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10071000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9994000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9133000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11205000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7277000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8283000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8151000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7701000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9678000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9177000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9596000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10911000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5308000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6997000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7562000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8324000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5905000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18063000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17957000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17383000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16263000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15430000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17822000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18153000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15687000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15544000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14720000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17585000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17139000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15429000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15261000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15563000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15268000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17208000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43788000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14373000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14180000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12861000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12318000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12926000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13697000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13893000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13440000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11431000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31909000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30549000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28656000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28160000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27646000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29807000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30208000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29880000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29633000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30160000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33059000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31838000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29382000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31294000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28264000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28220000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30111000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56127000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29607000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28327000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27943000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>28223000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>23403000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>25379000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26146000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>26330000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22209000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19804000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21985000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21782000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21235000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23784000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24373000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24523000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24715000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26491000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27399000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27978000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28181000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25653000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25490000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22056000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21833000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22116000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22889000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22470000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22605000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22760000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23199000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23224000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23163000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>22999000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>22933000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>17897000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7335000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7565000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7592000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8171000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8474000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9334000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9242000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9677000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13763000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13604000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17009000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15105000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14843000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15336000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12499000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13320000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12563000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11623000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14794000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14043000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14454000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12891000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12225000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14060000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>14626000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>15077000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>15127000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59132000</v>
+      </c>
+      <c r="E66" s="3">
         <v>60182000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57644000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59985000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63678000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64140000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64438000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69973000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71229000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71180000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75194000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69951000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72194000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62896000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63447000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64868000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90717000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66949000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65056000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65243000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64426000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>58911000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62661000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>63830000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>64400000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>55292000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,76 +5836,79 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51057000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51253000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58544000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60000000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>62095000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60699000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66802000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55917000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53194000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49670000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55738000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53615000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52936000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50035000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54618000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51668000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50557000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46348000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>77739000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>77063000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>75934000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>24</v>
@@ -5752,8 +5925,11 @@
       <c r="AD72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51847000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52059000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59342000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60820000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62925000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61540000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>67655000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56771000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54042000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50523000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56598000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54484000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53812000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50903000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55474000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52524000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51426000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47229000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78614000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77938000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>76815000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>71098000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>74168000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>72311000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>69919000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>67586000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>74832000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2293000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1466000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1573000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1694000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2222000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16308000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2758000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2896000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2059000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2094000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1935000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1867000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1125000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2042000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6799000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1766000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1195000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1623000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7768000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1976000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2081000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1666000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>957000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1996000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1948000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2026000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1802000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1405000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1519000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1453000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1444000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1697000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1617000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1734000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1703000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1410000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1937000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1402000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1046000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1441000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3199000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2963000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2893000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1254000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1468000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1478000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1354000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1776000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1700000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3576000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2957000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4111000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4721000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3755000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1649000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3884000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4925000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4132000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2130000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4005000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3156000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3961000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2528000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3540000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4562000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3610000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1913000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3766000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4050000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3942000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2514000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3408000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3586000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3582000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2045000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-996000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-470000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-647000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-582000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-583000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-859000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-977000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-539000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-321000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-246000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-521000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-279000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-238000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-461000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-357000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-279000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-282000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-444000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-295000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-257000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-359000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-638000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-382000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-332000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-554000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1053000</v>
+      </c>
+      <c r="E94" s="3">
         <v>10621000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1467000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5198000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11628000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9365000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4563000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>780000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-571000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-425000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>318000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-474000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1328000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-886000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4325000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-996000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-685000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-337000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,17 +7633,18 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7255000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7419,11 +7652,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -7431,11 +7664,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7443,11 +7676,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7455,11 +7688,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7467,11 +7700,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7479,16 +7712,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3637000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9202000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3994000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4738000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2302000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>453000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-388000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>107000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>141000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-80000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-52000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-41000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-65000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-227000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>166000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>66000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>79000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-64000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>76000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-104000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>80000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>34000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>51000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>9000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-382000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1115000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4483000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1209000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5101000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10227000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1445000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5196000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2094000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1316000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>664000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3077000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1389000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2734000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3184000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-729000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1554000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6633000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>50000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>954000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>284000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>565000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-167000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2138000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13936000</v>
+        <v>12092000</v>
       </c>
       <c r="E8" s="3">
+        <v>22792000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13208000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13001000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12842000</v>
-      </c>
       <c r="H8" s="3">
+        <v>10783000</v>
+      </c>
+      <c r="I8" s="3">
         <v>13085000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12814000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13522000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13367000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13294000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12694000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13030000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12538000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11622000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12708000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12716000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12482000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12024000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11402000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11876000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11358000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11633000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12929000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13164000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12692000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12494000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11785000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>12556000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>12341000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4006000</v>
+        <v>3089000</v>
       </c>
       <c r="E9" s="3">
+        <v>5944000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3829000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3837000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3657000</v>
-      </c>
       <c r="H9" s="3">
+        <v>6531000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3749000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3755000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3848000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3754000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3833000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3940000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3568000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3337000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3555000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3834000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3616000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3315000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3165000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8368000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7646000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7874000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4257000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4393000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4292000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4210000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4063000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4426000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>4309000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9930000</v>
+        <v>9003000</v>
       </c>
       <c r="E10" s="3">
+        <v>16848000</v>
+      </c>
+      <c r="F10" s="3">
         <v>9379000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9164000</v>
       </c>
-      <c r="G10" s="3">
-        <v>9185000</v>
-      </c>
       <c r="H10" s="3">
+        <v>4252000</v>
+      </c>
+      <c r="I10" s="3">
         <v>9336000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9059000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9522000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9519000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9540000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8861000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9090000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8970000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8285000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9153000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8882000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8866000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8709000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8237000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3508000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3712000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3759000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8672000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8771000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8400000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8284000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7722000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8130000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>8032000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,97 +1079,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2349000</v>
+        <v>2187000</v>
       </c>
       <c r="E12" s="3">
+        <v>4182000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2272000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2318000</v>
       </c>
-      <c r="G12" s="3">
-        <v>2263000</v>
-      </c>
       <c r="H12" s="3">
+        <v>4805000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2251000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2256000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2369000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2261000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2284000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2127000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2297000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2143000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2010000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2034000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2193000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2175000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2054000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1964000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4553000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4217000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4307000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2111000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2251000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2049000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2029000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1984000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>2173000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,126 +1261,132 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>858000</v>
+        <v>1751000</v>
       </c>
       <c r="E14" s="3">
+        <v>648000</v>
+      </c>
+      <c r="F14" s="3">
         <v>298000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1172000</v>
       </c>
-      <c r="G14" s="3">
-        <v>1059000</v>
-      </c>
       <c r="H14" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>295000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>305000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>271000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-136000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>690000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>66000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1067000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>731000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>302000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>784000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>505000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>456000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>453000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1116000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>744000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-5483000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>181000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>170000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>166000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>68000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>220000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-152000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>45000</v>
+        <v>169000</v>
       </c>
       <c r="E15" s="3">
+        <v>198000</v>
+      </c>
+      <c r="F15" s="3">
         <v>153000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42000</v>
       </c>
       <c r="G15" s="3">
         <v>42000</v>
       </c>
       <c r="H15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I15" s="3">
         <v>39000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>27000</v>
       </c>
       <c r="M15" s="3">
         <v>27000</v>
@@ -1373,58 +1395,61 @@
         <v>27000</v>
       </c>
       <c r="O15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="P15" s="3">
         <v>12000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>145000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>15000</v>
       </c>
       <c r="Y15" s="3">
         <v>15000</v>
       </c>
       <c r="Z15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>140000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>16000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>24000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>13000</v>
       </c>
       <c r="AE15" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11016000</v>
+        <v>10330000</v>
       </c>
       <c r="E17" s="3">
+        <v>17367000</v>
+      </c>
+      <c r="F17" s="3">
         <v>10352000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11052000</v>
       </c>
-      <c r="G17" s="3">
-        <v>10674000</v>
-      </c>
       <c r="H17" s="3">
+        <v>8957000</v>
+      </c>
+      <c r="I17" s="3">
         <v>10857000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9962000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10960000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10134000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9815000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10279000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10386000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10126000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9270000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9964000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10893000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10124000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9160000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10515000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9119000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3411000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10482000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11094000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10335000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10214000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9863000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11101000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>10072000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2920000</v>
+        <v>1762000</v>
       </c>
       <c r="E18" s="3">
+        <v>5425000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2856000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1949000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2168000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2228000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2852000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2562000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3233000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3479000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2415000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2644000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2412000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2352000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2744000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1823000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2358000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2663000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2242000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1361000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2239000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8222000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2447000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2070000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2357000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2280000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1922000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1455000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2269000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1664,453 +1696,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>73000</v>
+        <v>12000</v>
       </c>
       <c r="E20" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F20" s="3">
         <v>95000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-34000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14595000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>228000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>237000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>207000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>156000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>116000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>139000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>265000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>176000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>124000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>220000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>241000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>186000</v>
       </c>
       <c r="Y20" s="3">
         <v>186000</v>
       </c>
       <c r="Z20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>439000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>276000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>227000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>205000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-209000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4818000</v>
+        <v>4642000</v>
       </c>
       <c r="E21" s="3">
+        <v>9431000</v>
+      </c>
+      <c r="F21" s="3">
         <v>4947000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3908000</v>
       </c>
-      <c r="G21" s="3">
-        <v>4160000</v>
-      </c>
       <c r="H21" s="3">
+        <v>3819000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4046000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4275000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18676000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4885000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5151000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4349000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4377000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4353000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4211000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4270000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3899000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4025000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3885000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3807000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3217000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3845000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9688000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3887000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3977000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4111000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3861000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3903000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2946000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>3956000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>416000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>211000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>206000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>206000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>202000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>201000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>220000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>239000</v>
+      </c>
+      <c r="S22" s="3">
+        <v>203000</v>
+      </c>
+      <c r="T22" s="3">
+        <v>216000</v>
+      </c>
+      <c r="U22" s="3">
+        <v>205000</v>
+      </c>
+      <c r="V22" s="3">
+        <v>226000</v>
+      </c>
+      <c r="W22" s="3">
+        <v>248000</v>
+      </c>
+      <c r="X22" s="3">
+        <v>229000</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>237000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>224000</v>
       </c>
-      <c r="E22" s="3">
-        <v>211000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>219000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>215000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>202000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>201000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>206000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>202000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>201000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>202000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>201000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>209000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>220000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>239000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>203000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>216000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>205000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>226000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>248000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>229000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>237000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>224000</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>208000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>197000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>192000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>180000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>168000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2769000</v>
+        <v>1552000</v>
       </c>
       <c r="E23" s="3">
+        <v>5194000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2740000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1741000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1919000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2042000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2669000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16951000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3230000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3506000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2450000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2559000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2410000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2288000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2621000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1759000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2407000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2634000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2140000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1333000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2251000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8171000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2409000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2301000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2436000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2315000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1947000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1078000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2274000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>452000</v>
+        <v>39000</v>
       </c>
       <c r="E24" s="3">
+        <v>773000</v>
+      </c>
+      <c r="F24" s="3">
         <v>446000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>275000</v>
       </c>
-      <c r="G24" s="3">
-        <v>344000</v>
-      </c>
       <c r="H24" s="3">
+        <v>257000</v>
+      </c>
+      <c r="I24" s="3">
         <v>347000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>450000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>645000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>472000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>611000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>391000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>460000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>478000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>421000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>448000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>630000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>366000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>525000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>272000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>113000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>369000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>443000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>381000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>386000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>353000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>336000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>282000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>142000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>329000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2317000</v>
+        <v>1513000</v>
       </c>
       <c r="E26" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2294000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1466000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1575000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1330000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1695000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2219000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16306000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2758000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2895000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2059000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2099000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1932000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2173000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1129000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2041000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2109000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1868000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1220000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1882000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7728000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2028000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1915000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2083000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1979000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1665000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>936000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1945000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2316000</v>
+        <v>1511000</v>
       </c>
       <c r="E27" s="3">
+        <v>4419000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2293000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1466000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1573000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1694000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2222000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16308000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2758000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2896000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2059000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2094000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1935000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2176000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1125000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2042000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2108000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1867000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1221000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1881000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7728000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1915000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2081000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1666000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>957000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2465,31 +2522,34 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>190000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>245000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2500,8 +2560,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2512,35 +2572,35 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>4691000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-101000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-26000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-258000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>40000</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>61000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-73000</v>
+        <v>-12000</v>
       </c>
       <c r="E32" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-95000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
-        <v>34000</v>
-      </c>
       <c r="H32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14595000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-228000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-237000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-207000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-116000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-139000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-265000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-176000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-124000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-220000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-241000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-186000</v>
       </c>
       <c r="Y32" s="3">
         <v>-186000</v>
       </c>
       <c r="Z32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-439000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-276000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-227000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-205000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>209000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2316000</v>
+        <v>1761000</v>
       </c>
       <c r="E33" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2293000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1466000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1573000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1694000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2222000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16308000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2758000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2896000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2059000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2094000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1935000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2176000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1125000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2042000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6799000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1766000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1195000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1623000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7768000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1976000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2081000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1666000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>957000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2316000</v>
+        <v>1761000</v>
       </c>
       <c r="E35" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2293000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1466000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1573000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1694000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2222000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16308000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2758000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2896000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2059000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2094000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1935000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2176000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1125000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2042000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6799000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1766000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1195000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1623000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7768000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1976000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2081000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1666000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>957000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,168 +3333,172 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12405000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10885000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7517000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8726000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3625000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13852000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12407000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7211000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5117000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3801000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9658000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8994000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5917000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4528000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11112000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8378000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9991000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6807000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13271000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14000000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12446000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5813000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9485000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9421000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8437000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8237000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7007000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7785000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E42" s="3">
         <v>289000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>260000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11413000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10377000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16133000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4962000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15922000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>951000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>239000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>276000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1905000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1876000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>376000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>445000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>334000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>339000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>344000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>305000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2693000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>710000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>700000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>609000</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>24</v>
@@ -3420,637 +3509,661 @@
       <c r="AC42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE42" s="3">
         <v>770000</v>
       </c>
-      <c r="AE42" s="3" t="s">
+      <c r="AF42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7099000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9543000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9183000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8334000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8680000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8910000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8678000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8283000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8632000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8654000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8481000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8456000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8299000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7952000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8795000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8555000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8070000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8252000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7845000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8975000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8766000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8989000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9116000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8802000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8482000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8380000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8234000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8202000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>8547000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5610000</v>
+      </c>
+      <c r="E44" s="3">
         <v>8228000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7886000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7175000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6779000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6880000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6997000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6666000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6885000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7111000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6997000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7131000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7136000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6904000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6398000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5982000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6123000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6094000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5728000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6956000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6952000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7097000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7227000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6867000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6954000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6901000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6583000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6255000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>6773000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20256000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4548000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2785000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2471000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2392000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2594000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2747000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2440000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2574000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2687000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2643000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2523000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2668000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2733000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2932000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3521000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3765000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3639000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31763000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3668000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3685000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2833000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10286000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3054000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2609000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2820000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2712000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2697000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2778000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45660000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33493000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32114000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36910000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36954000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38142000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37236000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45718000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26253000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23808000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22198000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29673000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28973000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23882000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23098000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29504000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26675000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28320000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>52448000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35563000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34113000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>32065000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>33051000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28208000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27466000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26538000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>25766000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>24931000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>25883000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2433000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2555000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2554000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2491000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2580000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2906000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3241000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12347000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12014000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11628000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12533000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11603000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11050000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10521000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11162000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11062000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11638000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10122000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10697000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10807000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10359000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10521000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>26660000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>28692000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27926000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27722000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>16500000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>27723000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10344000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12277000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12348000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12195000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11731000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12206000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12861000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13106000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13157000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13344000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13204000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13939000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13337000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13595000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13560000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13746000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13560000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14052000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14136000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15696000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15745000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15957000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16677000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16464000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16263000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16206000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15772000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>15641000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>16199000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49834000</v>
+      </c>
+      <c r="E49" s="3">
         <v>57525000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59932000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60945000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>60556000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62480000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64489000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>63777000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>63523000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64584000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64967000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66808000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66415000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>65769000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66388000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>55311000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>56000000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>53754000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>53316000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>74013000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>72989000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>74610000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>66250000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>61747000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>62551000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>63079000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>62726000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>62320000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>64202000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,79 +4343,82 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4737000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5251000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5292000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4849000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6732000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7502000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7726000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5953000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5929000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10265000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9755000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4825000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9350000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9467000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9530000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8647000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8674000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8530000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7924000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9594000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9340000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9067000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9025000</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>24</v>
@@ -4310,14 +4429,17 @@
       <c r="AC52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE52" s="3">
         <v>10732000</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112697000</v>
+      </c>
+      <c r="E54" s="3">
         <v>110979000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112241000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117453000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118464000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122910000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125218000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131795000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121209000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124015000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121752000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127778000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>129678000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123763000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123097000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118370000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>115971000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116294000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>137946000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>145563000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>142994000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>142058000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>135524000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>133079000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>134972000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>133749000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>131986000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>130124000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>134007000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,542 +4689,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3870000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5350000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5426000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5146000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4693000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4969000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5083000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5553000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4665000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4811000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5040000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5403000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4705000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4820000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4828000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5424000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4669000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4752000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4638000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5556000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4970000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5486000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4994000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5169000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4685000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4691000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4566000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4873000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4662000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5602000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8496000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7166000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6127000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7204000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7247000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6902000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6502000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9528000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9278000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10400000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10071000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9994000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9133000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11205000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7277000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8283000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8151000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7701000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9678000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9177000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9596000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10911000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5308000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6997000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7562000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8324000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5905000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>8307000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38921000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18063000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17957000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17383000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16263000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15430000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17822000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18153000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15687000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15544000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14720000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17585000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17139000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15429000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15261000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15563000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15268000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17208000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>43788000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14373000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14180000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12861000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12318000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12926000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13697000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13893000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13440000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11431000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>11635000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48393000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31909000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30549000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28656000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28160000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27646000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29807000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30208000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29880000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29633000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30160000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33059000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31838000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29382000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31294000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28264000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28220000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30111000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56127000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29607000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28327000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>27943000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>28223000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>23403000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>25379000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>26146000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>26330000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>22209000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>24604000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19521000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19804000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21985000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21782000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21235000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23784000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24373000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24523000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24715000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26491000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27399000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27978000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28181000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25653000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25490000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22056000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21833000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22116000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22889000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22470000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22605000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22760000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23199000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23224000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>23163000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>22999000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>22933000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>17897000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>18259000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6538000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7335000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7565000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7592000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8474000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9334000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9242000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9677000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13763000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13604000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17009000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15105000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14843000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15336000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12499000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13320000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12563000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11623000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14794000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14043000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14454000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12891000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12225000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>14060000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>14626000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>15077000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>15127000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>16078000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74533000</v>
+      </c>
+      <c r="E66" s="3">
         <v>59132000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60182000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57644000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59985000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63678000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64140000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64438000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69973000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71229000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71180000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75194000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69951000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72194000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62896000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63447000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64868000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90717000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>66949000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65056000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>65243000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64426000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>58911000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62661000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>63830000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>64400000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>55292000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>59023000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,79 +6009,82 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37371000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51057000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51253000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58544000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60000000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>62095000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60699000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66802000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55917000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53194000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49670000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55738000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53615000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52936000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50035000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54618000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51668000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50557000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46348000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>77739000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>77063000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>75934000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>70222000</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>24</v>
@@ -5928,8 +6101,11 @@
       <c r="AE72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38164000</v>
+      </c>
+      <c r="E76" s="3">
         <v>51847000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52059000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59342000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60820000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62925000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61540000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67655000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56771000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54042000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50523000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56598000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54484000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53812000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50903000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55474000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52524000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51426000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47229000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>78614000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77938000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>76815000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>71098000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>74168000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>72311000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>69919000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>67586000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>74832000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>74984000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2316000</v>
+        <v>1761000</v>
       </c>
       <c r="E81" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2293000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1466000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1573000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1694000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2222000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16308000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2758000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2896000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2059000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2094000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1935000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2176000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1125000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2042000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6799000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1766000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1195000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1623000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7768000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1976000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2081000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1666000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>957000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1940000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1825000</v>
+        <v>2868000</v>
       </c>
       <c r="E83" s="3">
+        <v>3821000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1996000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1948000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2026000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1802000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1405000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1519000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1453000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1444000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1697000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1617000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1734000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1703000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1410000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1937000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1402000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1046000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1441000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3199000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2963000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2893000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1254000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1468000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1478000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1354000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1776000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1700000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1508000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3576000</v>
+        <v>4730000</v>
       </c>
       <c r="E89" s="3">
+        <v>6533000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2957000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4111000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4721000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3755000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1649000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3884000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4925000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4132000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2130000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4005000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3156000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3961000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2528000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3540000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4562000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3610000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1913000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3766000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4050000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3942000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2514000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3408000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3586000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3582000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2045000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3231000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-504000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-996000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-470000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-647000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-582000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-583000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-859000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-977000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-539000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-321000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-246000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-521000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-279000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-238000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-237000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-461000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-357000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-279000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-282000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-444000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-295000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-257000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-359000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-638000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-382000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-332000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-554000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-979000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1053000</v>
+        <v>-2212000</v>
       </c>
       <c r="E94" s="3">
+        <v>9568000</v>
+      </c>
+      <c r="F94" s="3">
         <v>10621000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1467000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5198000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11628000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9365000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4563000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1232000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>780000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-571000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2045000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-425000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10141000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>318000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3398000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-474000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1328000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4935000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-886000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4325000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4095000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-996000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-685000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-337000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1073000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-752000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,8 +7866,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7646,7 +7879,7 @@
         <v>-7255000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-7255000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7655,11 +7888,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7506000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7667,11 +7900,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7368000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7679,11 +7912,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6987000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7691,11 +7924,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6645000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7703,11 +7936,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-6966000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7715,16 +7948,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-6495000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,271 +8232,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3637000</v>
+        <v>-832000</v>
       </c>
       <c r="E100" s="3">
+        <v>-12839000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9202000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3994000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4738000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2302000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9528000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3251000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1534000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2939000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8540000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2936000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2185000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1013000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1203000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2713000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9683000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>453000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1621000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1530000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2396000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1937000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3012000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-388000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2303000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-342000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-166000</v>
       </c>
       <c r="E101" s="3">
+        <v>106000</v>
+      </c>
+      <c r="F101" s="3">
         <v>107000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>141000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-80000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-52000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-41000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-65000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-227000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>166000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>66000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>79000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-64000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>76000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-104000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>80000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>34000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>51000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>9000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-382000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1115000</v>
+        <v>1520000</v>
       </c>
       <c r="E102" s="3">
+        <v>3368000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4483000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1209000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10227000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1445000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5196000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2094000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1316000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5857000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>664000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3077000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1389000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6584000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2734000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1613000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3184000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6464000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-729000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1554000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6633000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3047000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>50000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>954000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>284000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>565000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-167000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2138000</v>
       </c>
     </row>
